--- a/Resultater/Resultater.xlsx
+++ b/Resultater/Resultater.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="28515" windowHeight="12600"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="28515" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="d4 400_24" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
   <si>
     <t>Pressure</t>
   </si>
@@ -190,124 +190,124 @@
                   <c:v>47.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42.5</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>52.5</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42.5</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17.5</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42.5</c:v>
+                  <c:v>47.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>12.5</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>32.5</c:v>
-                </c:pt>
                 <c:pt idx="25">
-                  <c:v>37.5</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>47.5</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>32.5</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>37.5</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>32.5</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>37.5</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>47.5</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>22.5</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="43">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>22.5</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>22.5</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>27.5</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>42.5</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>47.5</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>47.5</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>47.5</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>22.5</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>22.5</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>17.5</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>17.5</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>27.5</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>17.5</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -361,16 +361,16 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.5</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.5</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.5</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.5</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.6</c:v>
@@ -379,106 +379,106 @@
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.6</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.6</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.6</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.6</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.6</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.6</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.6</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.6</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.6</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.6</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.6</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.7</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.7</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.7</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.7</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.7</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.7</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.7</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.7</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.7</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.7</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.7</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.8</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.8</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.8</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.8</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -514,88 +514,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>17.5</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>57.5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="16">
                   <c:v>47.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="17">
                   <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>47.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>37.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>27.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>52.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>52.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>22.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>47.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>47.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>27.5</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>27.5</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>52.5</c:v>
@@ -610,88 +610,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="16">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="17">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="18">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="19">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="20">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="21">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="22">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="23">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="24">
                   <c:v>1.6</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="25">
                   <c:v>1.6</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="26">
                   <c:v>1.6</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="27">
                   <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>2</c:v>
@@ -703,9 +703,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:v>2. CZ Faliure</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575">
               <a:noFill/>
@@ -724,7 +721,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'d4 400_24'!$D$2:$D$19</c:f>
+              <c:f>'d4 400_24'!$J$2:$J$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -770,12 +767,24 @@
                 <c:pt idx="13">
                   <c:v>102.5</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>72.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>102.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>72.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'d4 400_24'!$A$2:$A$19</c:f>
+              <c:f>'d4 400_24'!$G$2:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -822,16 +831,16 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.5</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.5</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.5</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -840,9 +849,6 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
-          <c:tx>
-            <c:v>2. CZ Success</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575">
               <a:noFill/>
@@ -862,91 +868,124 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'d4 400_24'!$D$20:$D$55</c:f>
+              <c:f>'d4 400_24'!$J$20:$J$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>72.5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>72.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>72.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>72.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>72.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>97.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="28">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>62.5</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>72.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>102.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>62.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>77.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>62.5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>37.5</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>72.5</c:v>
-                </c:pt>
                 <c:pt idx="31">
-                  <c:v>67.5</c:v>
+                  <c:v>57.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>67.5</c:v>
+                  <c:v>82.5</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>80</c:v>
+                  <c:v>82.5</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>67.5</c:v>
+                  <c:v>77.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'d4 400_24'!$A$20:$A$55</c:f>
+              <c:f>'d4 400_24'!$G$20:$G$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -963,111 +1002,110 @@
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.6</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.6</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.6</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.6</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.6</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.6</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.6</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.7</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.7</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.7</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.7</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.7</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.7</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.7</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.7</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.7</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.7</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.7</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.8</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.8</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.8</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.8</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.8</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="63211776"/>
-        <c:axId val="63210240"/>
+        <c:axId val="88827392"/>
+        <c:axId val="88829312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="63211776"/>
+        <c:axId val="88827392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -1120,13 +1158,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63210240"/>
+        <c:crossAx val="88829312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="63210240"/>
+        <c:axId val="88829312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.1"/>
@@ -1168,7 +1206,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63211776"/>
+        <c:crossAx val="88827392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -1182,7 +1220,630 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nb-NO"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nb-NO"/>
+              <a:t>Interruption test for geometry</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nb-NO" baseline="0"/>
+              <a:t> one</a:t>
+            </a:r>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1. CZ Faliure</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="44"/>
+            <c:marker>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:marker>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'d3 400_24'!$B$2:$B$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'d3 400_24'!$A$2:$A$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1. CZ Success</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'d3 400_24'!$B$56:$B$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'d3 400_24'!$A$56:$A$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>2. CZ Faliure</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'d3 400_24'!$D$2:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>72.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>72.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'d3 400_24'!$A$2:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>2. CZ Success</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'d3 400_24'!$D$20:$D$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'d3 400_24'!$A$20:$A$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="88383488"/>
+        <c:axId val="88385792"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="88383488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:alpha val="25000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO"/>
+                  <a:t>possition in nozzle</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nb-NO" baseline="0"/>
+                  <a:t> for CZ [mm]</a:t>
+                </a:r>
+                <a:endParaRPr lang="nb-NO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88385792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="88385792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.1"/>
+          <c:min val="0.2"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO"/>
+                  <a:t>Pressure difference</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nb-NO" baseline="0"/>
+                  <a:t> [bar]</a:t>
+                </a:r>
+                <a:endParaRPr lang="nb-NO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88383488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1192,20 +1853,55 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>526676</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>481853</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57709</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>526677</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>67235</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="8" name="Diagram 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>273424</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1508,15 +2204,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:K84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z23" sqref="Z23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1532,8 +2228,23 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>0.3</v>
       </c>
@@ -1549,8 +2260,23 @@
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="G2">
+        <v>0.3</v>
+      </c>
+      <c r="H2">
+        <v>32.5</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>87.5</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>0.3</v>
       </c>
@@ -1566,8 +2292,23 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="G3">
+        <v>0.3</v>
+      </c>
+      <c r="H3">
+        <v>7.5</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>57.5</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -1583,8 +2324,23 @@
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="G4">
+        <v>0.3</v>
+      </c>
+      <c r="H4">
+        <v>52.5</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>95</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>0.3</v>
       </c>
@@ -1600,8 +2356,23 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="G5">
+        <v>0.3</v>
+      </c>
+      <c r="H5">
+        <v>25.5</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>87.5</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>0.3</v>
       </c>
@@ -1617,8 +2388,23 @@
       <c r="E6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="G6">
+        <v>0.3</v>
+      </c>
+      <c r="H6">
+        <v>7.5</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>62.5</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>0.4</v>
       </c>
@@ -1634,8 +2420,23 @@
       <c r="E7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="G7">
+        <v>0.4</v>
+      </c>
+      <c r="H7">
+        <v>27.5</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>97.5</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>0.4</v>
       </c>
@@ -1651,8 +2452,23 @@
       <c r="E8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="G8">
+        <v>0.4</v>
+      </c>
+      <c r="H8">
+        <v>45</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>97.5</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>0.4</v>
       </c>
@@ -1668,8 +2484,23 @@
       <c r="E9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="G9">
+        <v>0.4</v>
+      </c>
+      <c r="H9">
+        <v>37.5</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>92.5</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>0.4</v>
       </c>
@@ -1685,8 +2516,23 @@
       <c r="E10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="G10">
+        <v>0.4</v>
+      </c>
+      <c r="H10">
+        <v>37.5</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>92.5</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>0.4</v>
       </c>
@@ -1702,8 +2548,23 @@
       <c r="E11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="G11">
+        <v>0.4</v>
+      </c>
+      <c r="H11">
+        <v>2.5</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>57.5</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>0.4</v>
       </c>
@@ -1719,8 +2580,23 @@
       <c r="E12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="G12">
+        <v>0.4</v>
+      </c>
+      <c r="H12">
+        <v>52.5</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>105</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>0.4</v>
       </c>
@@ -1736,8 +2612,23 @@
       <c r="E13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="G13">
+        <v>0.4</v>
+      </c>
+      <c r="H13">
+        <v>42.5</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>97.5</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>0.5</v>
       </c>
@@ -1753,8 +2644,23 @@
       <c r="E14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="G14">
+        <v>0.5</v>
+      </c>
+      <c r="H14">
+        <v>52.5</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>102.5</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>0.5</v>
       </c>
@@ -1770,69 +2676,183 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="G15">
+        <v>0.5</v>
+      </c>
+      <c r="H15">
+        <v>47.5</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>102.5</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="B16">
-        <v>42.5</v>
+        <v>17.5</v>
       </c>
       <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>72.5</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0.6</v>
+      </c>
+      <c r="H16">
+        <v>17.5</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>72.5</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="B17">
-        <v>52.5</v>
+        <v>17.5</v>
       </c>
       <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>70</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0.6</v>
+      </c>
+      <c r="H17">
+        <v>17.5</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>70</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="B18">
         <v>42.5</v>
       </c>
       <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>97.5</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.7</v>
+      </c>
+      <c r="H18">
+        <v>47.5</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>102.5</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="B19">
-        <v>42.5</v>
+        <v>27.5</v>
       </c>
       <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>80</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>17.5</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>72.5</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>0.6</v>
       </c>
       <c r="B20">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>72.5</v>
+        <v>62.5</v>
       </c>
       <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.6</v>
+      </c>
+      <c r="H20">
+        <v>42.5</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>97.5</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>0.6</v>
       </c>
@@ -1843,32 +2863,62 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>70</v>
+        <v>72.5</v>
       </c>
       <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.6</v>
+      </c>
+      <c r="H21">
+        <v>27.5</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>80</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22">
+        <v>0.7</v>
+      </c>
+      <c r="B22">
+        <v>47.5</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>102.5</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="G22">
         <v>0.6</v>
       </c>
-      <c r="B22">
-        <v>42.5</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>97.5</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="H22">
+        <v>12.5</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>62.5</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="B23">
         <v>27.5</v>
@@ -1877,143 +2927,350 @@
         <v>0</v>
       </c>
       <c r="D23">
+        <v>85</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.6</v>
+      </c>
+      <c r="H23">
+        <v>17.5</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>72.5</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <v>0.7</v>
+      </c>
+      <c r="B24">
+        <v>22.5</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>75</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.7</v>
+      </c>
+      <c r="H24">
+        <v>27.5</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>85</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>0.7</v>
+      </c>
+      <c r="B25">
+        <v>7.5</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>60</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.7</v>
+      </c>
+      <c r="H25">
+        <v>22.5</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>75</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <v>0.7</v>
+      </c>
+      <c r="B26">
+        <v>12.5</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>62.5</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.7</v>
+      </c>
+      <c r="H26">
+        <v>7.5</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>60</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <v>0.7</v>
+      </c>
+      <c r="B27">
+        <v>22.5</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
         <v>80</v>
       </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24">
-        <v>0.6</v>
-      </c>
-      <c r="B24">
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.7</v>
+      </c>
+      <c r="H27">
         <v>12.5</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
         <v>62.5</v>
       </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25">
-        <v>0.6</v>
-      </c>
-      <c r="B25">
-        <v>17.5</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>72.5</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26">
-        <v>0.6</v>
-      </c>
-      <c r="B26">
-        <v>32.5</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27">
-        <v>0.6</v>
-      </c>
-      <c r="B27">
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28">
+        <v>0.7</v>
+      </c>
+      <c r="B28">
+        <v>22.5</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>77.5</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.7</v>
+      </c>
+      <c r="H28">
+        <v>22.5</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>80</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
+        <v>0.7</v>
+      </c>
+      <c r="B29">
+        <v>12.5</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>62.5</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.7</v>
+      </c>
+      <c r="H29">
+        <v>22.5</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>77.5</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30">
+        <v>0.7</v>
+      </c>
+      <c r="B30">
+        <v>27.5</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>80</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.7</v>
+      </c>
+      <c r="H30">
+        <v>12.5</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>62.5</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31">
+        <v>0.8</v>
+      </c>
+      <c r="B31">
+        <v>2.5</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
         <v>37.5</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28">
-        <v>0.6</v>
-      </c>
-      <c r="B28">
-        <v>47.5</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29">
-        <v>0.6</v>
-      </c>
-      <c r="B29">
-        <v>32.5</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30">
-        <v>0.6</v>
-      </c>
-      <c r="B30">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.7</v>
+      </c>
+      <c r="H31">
+        <v>27.5</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>80</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32">
+        <v>0.8</v>
+      </c>
+      <c r="B32">
+        <v>22.5</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>75</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.8</v>
+      </c>
+      <c r="H32">
+        <v>2.5</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
         <v>37.5</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31">
-        <v>0.6</v>
-      </c>
-      <c r="B31">
-        <v>32.5</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32">
-        <v>0.6</v>
-      </c>
-      <c r="B32">
-        <v>37.5</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="K32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="B33">
-        <v>47.5</v>
+        <v>22.5</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>102.5</v>
+        <v>80</v>
       </c>
       <c r="E33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.8</v>
+      </c>
+      <c r="H33">
+        <v>22.5</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>75</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="B34">
         <v>27.5</v>
@@ -2022,69 +3279,129 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="G34">
+        <v>0.8</v>
+      </c>
+      <c r="H34">
+        <v>22.5</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>80</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="B35">
-        <v>22.5</v>
+        <v>17.5</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>75</v>
+        <v>72.5</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="G35">
+        <v>0.8</v>
+      </c>
+      <c r="H35">
+        <v>27.5</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>80</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="B36">
-        <v>7.5</v>
+        <v>17.5</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
-      <c r="D36" s="1">
-        <v>60</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="D36">
+        <v>67.5</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.8</v>
+      </c>
+      <c r="H36">
+        <v>17.5</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>72.5</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="B37">
-        <v>12.5</v>
+        <v>17.5</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>62.5</v>
+        <v>67.5</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="G37">
+        <v>0.8</v>
+      </c>
+      <c r="H37">
+        <v>17.5</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>67.5</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="B38">
-        <v>22.5</v>
+        <v>27.5</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -2095,173 +3412,377 @@
       <c r="E38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="G38">
+        <v>0.8</v>
+      </c>
+      <c r="H38">
+        <v>17.5</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>67.5</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="B39">
+        <v>17.5</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>72.5</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>0.8</v>
+      </c>
+      <c r="H39">
+        <v>27.5</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>80</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40">
+        <v>0.8</v>
+      </c>
+      <c r="B40">
+        <v>17.5</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>67.5</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>0.8</v>
+      </c>
+      <c r="H40">
+        <v>17.5</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>72.5</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41">
+        <v>0.8</v>
+      </c>
+      <c r="B41">
+        <v>17.5</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>67.5</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>0.8</v>
+      </c>
+      <c r="H41">
+        <v>17.5</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>67.5</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>17.5</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>62.5</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>0.8</v>
+      </c>
+      <c r="H42">
+        <v>17.5</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>67.5</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>17.5</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>62.5</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>17.5</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>62.5</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44">
+        <v>1.2</v>
+      </c>
+      <c r="B44">
         <v>22.5</v>
       </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>77.5</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40">
-        <v>0.7</v>
-      </c>
-      <c r="B40">
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>72.5</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>17.5</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>62.5</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45">
+        <v>1.2</v>
+      </c>
+      <c r="B45">
+        <v>22.5</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>72.5</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1.2</v>
+      </c>
+      <c r="H45">
+        <v>22.5</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>72.5</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46">
+        <v>1.4</v>
+      </c>
+      <c r="B46">
+        <v>17.5</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>70</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1.2</v>
+      </c>
+      <c r="H46">
+        <v>22.5</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>72.5</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47">
+        <v>1.4</v>
+      </c>
+      <c r="B47">
+        <v>17.5</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>70</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1.4</v>
+      </c>
+      <c r="H47">
+        <v>17.5</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>70</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48">
+        <v>1.6</v>
+      </c>
+      <c r="B48">
         <v>12.5</v>
       </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>67.5</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1.4</v>
+      </c>
+      <c r="H48">
+        <v>17.5</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>70</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49">
+        <v>1.8</v>
+      </c>
+      <c r="B49">
+        <v>7.5</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
         <v>62.5</v>
       </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41">
-        <v>0.7</v>
-      </c>
-      <c r="B41">
-        <v>27.5</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>80</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42">
-        <v>0.7</v>
-      </c>
-      <c r="B42">
-        <v>42.5</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43">
-        <v>0.7</v>
-      </c>
-      <c r="B43">
-        <v>47.5</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44">
-        <v>0.7</v>
-      </c>
-      <c r="B44">
-        <v>47.5</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45">
-        <v>0.7</v>
-      </c>
-      <c r="B45">
-        <v>47.5</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46">
-        <v>0.8</v>
-      </c>
-      <c r="B46">
-        <v>2.5</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>37.5</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47">
-        <v>0.8</v>
-      </c>
-      <c r="B47">
-        <v>22.5</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>75</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48">
-        <v>0.8</v>
-      </c>
-      <c r="B48">
-        <v>22.5</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>80</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49">
-        <v>0.8</v>
-      </c>
-      <c r="B49">
-        <v>27.5</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>80</v>
-      </c>
       <c r="E49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="G49">
+        <v>1.6</v>
+      </c>
+      <c r="H49">
+        <v>12.5</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>67.5</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="B50">
         <v>17.5</v>
@@ -2273,63 +3794,123 @@
         <v>72.5</v>
       </c>
       <c r="E50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>1.8</v>
+      </c>
+      <c r="H50">
+        <v>7.5</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>62.5</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="B51">
-        <v>17.5</v>
+        <v>5</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>67.5</v>
+        <v>57.5</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <v>5</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>57.5</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="B52">
-        <v>17.5</v>
+        <v>27.5</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>67.5</v>
+        <v>82.5</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52">
+        <v>27.5</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>82.5</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="B53">
-        <v>27.5</v>
+        <v>30</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>80</v>
+        <v>82.5</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>30</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>82.5</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="B54">
         <v>17.5</v>
@@ -2343,273 +3924,417 @@
       <c r="E54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54">
+        <v>17.5</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>72.5</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55">
+        <v>22.5</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>77.5</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <v>22.5</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>77.5</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56">
+        <v>0.5</v>
+      </c>
+      <c r="B56">
+        <v>42.5</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>0.5</v>
+      </c>
+      <c r="H56">
+        <v>42.5</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57">
+        <v>0.5</v>
+      </c>
+      <c r="B57">
+        <v>52.5</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>0.5</v>
+      </c>
+      <c r="H57">
+        <v>52.5</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58">
+        <v>0.5</v>
+      </c>
+      <c r="B58">
+        <v>42.5</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>0.5</v>
+      </c>
+      <c r="H58">
+        <v>42.5</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59">
+        <v>0.5</v>
+      </c>
+      <c r="B59">
+        <v>42.5</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>0.5</v>
+      </c>
+      <c r="H59">
+        <v>42.5</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60">
+        <v>0.6</v>
+      </c>
+      <c r="B60">
+        <v>32.5</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>0.6</v>
+      </c>
+      <c r="H60">
+        <v>32.5</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61">
+        <v>0.6</v>
+      </c>
+      <c r="B61">
+        <v>37.5</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>0.6</v>
+      </c>
+      <c r="H61">
+        <v>37.5</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>47.5</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>0.6</v>
+      </c>
+      <c r="H62">
+        <v>47.5</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63">
+        <v>0.6</v>
+      </c>
+      <c r="B63">
+        <v>32.5</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>0.6</v>
+      </c>
+      <c r="H63">
+        <v>32.5</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64">
+        <v>0.6</v>
+      </c>
+      <c r="B64">
+        <v>37.5</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>0.6</v>
+      </c>
+      <c r="H64">
+        <v>37.5</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65">
+        <v>0.6</v>
+      </c>
+      <c r="B65">
+        <v>32.5</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>0.6</v>
+      </c>
+      <c r="H65">
+        <v>32.5</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66">
+        <v>0.6</v>
+      </c>
+      <c r="B66">
+        <v>37.5</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>0.6</v>
+      </c>
+      <c r="H66">
+        <v>37.5</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67">
+        <v>0.7</v>
+      </c>
+      <c r="B67">
+        <v>42.5</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>0.7</v>
+      </c>
+      <c r="H67">
+        <v>42.5</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68">
+        <v>0.7</v>
+      </c>
+      <c r="B68">
+        <v>47.5</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>0.7</v>
+      </c>
+      <c r="H68">
+        <v>47.5</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69">
+        <v>0.7</v>
+      </c>
+      <c r="B69">
+        <v>47.5</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>0.7</v>
+      </c>
+      <c r="H69">
+        <v>47.5</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70">
+        <v>0.7</v>
+      </c>
+      <c r="B70">
+        <v>47.5</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>0.7</v>
+      </c>
+      <c r="H70">
+        <v>47.5</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71">
         <v>0.8</v>
       </c>
-      <c r="B55">
-        <v>17.5</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>67.5</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56">
+      <c r="B71">
+        <v>57.5</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="G71">
         <v>0.8</v>
       </c>
-      <c r="B56">
-        <v>17.5</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>67.5</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57">
+      <c r="H71">
+        <v>57.5</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72">
         <v>0.8</v>
       </c>
-      <c r="B57">
-        <v>57.5</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58">
+      <c r="B72">
+        <v>47.5</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="G72">
         <v>0.8</v>
       </c>
-      <c r="B58">
+      <c r="H72">
         <v>47.5</v>
       </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59">
+      <c r="I72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73">
         <v>0.8</v>
       </c>
-      <c r="B59">
+      <c r="B73">
         <v>50</v>
       </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60">
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="G73">
         <v>0.8</v>
       </c>
-      <c r="B60">
-        <v>47.5</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61">
+      <c r="H73">
+        <v>50</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74">
         <v>0.8</v>
-      </c>
-      <c r="B61">
-        <v>42.5</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62">
-        <v>0.8</v>
-      </c>
-      <c r="B62">
-        <v>37.5</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63">
-        <v>0.8</v>
-      </c>
-      <c r="B63">
-        <v>27.5</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64">
-        <v>0.8</v>
-      </c>
-      <c r="B64">
-        <v>52.5</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65">
-        <v>0.8</v>
-      </c>
-      <c r="B65">
-        <v>52.5</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66">
-        <v>1</v>
-      </c>
-      <c r="B66">
-        <v>17.5</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <v>62.5</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67">
-        <v>1</v>
-      </c>
-      <c r="B67">
-        <v>17.5</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="D67">
-        <v>62.5</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68">
-        <v>1.2</v>
-      </c>
-      <c r="B68">
-        <v>22.5</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68">
-        <v>72.5</v>
-      </c>
-      <c r="E68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69">
-        <v>1.2</v>
-      </c>
-      <c r="B69">
-        <v>22.5</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <v>72.5</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70">
-        <v>1.4</v>
-      </c>
-      <c r="B70">
-        <v>17.5</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70">
-        <v>70</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71">
-        <v>1.4</v>
-      </c>
-      <c r="B71">
-        <v>17.5</v>
-      </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="D71">
-        <v>70</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72">
-        <v>1.6</v>
-      </c>
-      <c r="B72">
-        <v>12.5</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="D72">
-        <v>67.5</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73">
-        <v>1.6</v>
-      </c>
-      <c r="B73">
-        <v>47.5</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74">
-        <v>1.6</v>
       </c>
       <c r="B74">
         <v>47.5</v>
@@ -2617,149 +4342,197 @@
       <c r="C74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="G74">
+        <v>0.8</v>
+      </c>
+      <c r="H74">
+        <v>47.5</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75">
+        <v>0.8</v>
+      </c>
+      <c r="B75">
+        <v>42.5</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>0.8</v>
+      </c>
+      <c r="H75">
+        <v>42.5</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76">
+        <v>0.8</v>
+      </c>
+      <c r="B76">
+        <v>37.5</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>0.8</v>
+      </c>
+      <c r="H76">
+        <v>37.5</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77">
+        <v>0.8</v>
+      </c>
+      <c r="B77">
+        <v>27.5</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>0.8</v>
+      </c>
+      <c r="H77">
+        <v>27.5</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78">
+        <v>0.8</v>
+      </c>
+      <c r="B78">
+        <v>52.5</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>0.8</v>
+      </c>
+      <c r="H78">
+        <v>52.5</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79">
+        <v>0.8</v>
+      </c>
+      <c r="B79">
+        <v>52.5</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>0.8</v>
+      </c>
+      <c r="H79">
+        <v>52.5</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80">
         <v>1.6</v>
       </c>
-      <c r="B75">
+      <c r="B80">
+        <v>47.5</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>1.6</v>
+      </c>
+      <c r="H80">
+        <v>47.5</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81">
+        <v>1.6</v>
+      </c>
+      <c r="B81">
+        <v>47.5</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>1.6</v>
+      </c>
+      <c r="H81">
+        <v>47.5</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82">
+        <v>1.6</v>
+      </c>
+      <c r="B82">
         <v>27.5</v>
       </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76">
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="G82">
         <v>1.6</v>
       </c>
-      <c r="B76">
+      <c r="H82">
+        <v>27.5</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83">
+        <v>1.6</v>
+      </c>
+      <c r="B83">
         <v>40</v>
       </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77">
-        <v>1.8</v>
-      </c>
-      <c r="B77">
-        <v>7.5</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-      <c r="D77">
-        <v>62.5</v>
-      </c>
-      <c r="E77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78">
-        <v>2</v>
-      </c>
-      <c r="B78">
-        <v>17.5</v>
-      </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-      <c r="D78">
-        <v>72.5</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79">
-        <v>2</v>
-      </c>
-      <c r="B79">
-        <v>5</v>
-      </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-      <c r="D79">
-        <v>57.5</v>
-      </c>
-      <c r="E79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80">
-        <v>2</v>
-      </c>
-      <c r="B80">
-        <v>27.5</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="D80">
-        <v>82.5</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81">
-        <v>2</v>
-      </c>
-      <c r="B81">
-        <v>30</v>
-      </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-      <c r="D81">
-        <v>82.5</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82">
-        <v>2</v>
-      </c>
-      <c r="B82">
-        <v>17.5</v>
-      </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-      <c r="D82">
-        <v>72.5</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83">
-        <v>2</v>
-      </c>
-      <c r="B83">
-        <v>22.5</v>
-      </c>
       <c r="C83">
-        <v>0</v>
-      </c>
-      <c r="D83">
-        <v>77.5</v>
-      </c>
-      <c r="E83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>1.6</v>
+      </c>
+      <c r="H83">
+        <v>40</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84">
         <v>2</v>
       </c>
@@ -2769,10 +4542,19 @@
       <c r="C84">
         <v>1</v>
       </c>
+      <c r="G84">
+        <v>2</v>
+      </c>
+      <c r="H84">
+        <v>52.5</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E84">
-    <sortCondition ref="A2:A84"/>
+  <sortState ref="G2:K84">
+    <sortCondition ref="K2:K84"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2782,15 +4564,785 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>0.6</v>
+      </c>
+      <c r="B2">
+        <v>22.5</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>72.5</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.6</v>
+      </c>
+      <c r="H2">
+        <v>22.5</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>72.5</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>0.6</v>
+      </c>
+      <c r="B3">
+        <v>7.5</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>57.5</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0.6</v>
+      </c>
+      <c r="H3">
+        <v>7.5</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>57.5</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>0.6</v>
+      </c>
+      <c r="B4">
+        <v>37.5</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>90</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0.6</v>
+      </c>
+      <c r="H4">
+        <v>37.5</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>90</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>0.7</v>
+      </c>
+      <c r="B5">
+        <v>42.5</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.7</v>
+      </c>
+      <c r="H5">
+        <v>42.5</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>0.7</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.7</v>
+      </c>
+      <c r="H6">
+        <v>50</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>0.7</v>
+      </c>
+      <c r="B7">
+        <v>52.5</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.7</v>
+      </c>
+      <c r="H7">
+        <v>52.5</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>0.7</v>
+      </c>
+      <c r="B8">
+        <v>52.5</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.7</v>
+      </c>
+      <c r="H8">
+        <v>52.5</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>0.7</v>
+      </c>
+      <c r="B9">
+        <v>50</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.7</v>
+      </c>
+      <c r="H9">
+        <v>50</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>0.6</v>
+      </c>
+      <c r="B10">
+        <v>27.5</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>80</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0.6</v>
+      </c>
+      <c r="H10">
+        <v>27.5</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>80</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>0.6</v>
+      </c>
+      <c r="B11">
+        <v>2.5</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>57.5</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0.6</v>
+      </c>
+      <c r="H11">
+        <v>2.5</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>57.5</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>0.6</v>
+      </c>
+      <c r="B12">
+        <v>12.5</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>62.5</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0.6</v>
+      </c>
+      <c r="H12">
+        <v>12.5</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>62.5</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>0.6</v>
+      </c>
+      <c r="B13">
+        <v>55</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>110</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0.6</v>
+      </c>
+      <c r="H13">
+        <v>55</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>110</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>0.6</v>
+      </c>
+      <c r="B14">
+        <v>27.5</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>85</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.6</v>
+      </c>
+      <c r="H14">
+        <v>27.5</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>85</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>0.6</v>
+      </c>
+      <c r="B15">
+        <v>7.5</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>62.5</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0.6</v>
+      </c>
+      <c r="H15">
+        <v>7.5</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>62.5</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>0.6</v>
+      </c>
+      <c r="B16">
+        <v>17.5</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>72.5</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0.6</v>
+      </c>
+      <c r="H16">
+        <v>17.5</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>72.5</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>0.6</v>
+      </c>
+      <c r="B17">
+        <v>37.5</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>90</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.6</v>
+      </c>
+      <c r="H17">
+        <v>37.5</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>90</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>0.6</v>
+      </c>
+      <c r="B18">
+        <v>45</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>105</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0.6</v>
+      </c>
+      <c r="H18">
+        <v>45</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>105</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>0.6</v>
+      </c>
+      <c r="B19">
+        <v>52.5</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.6</v>
+      </c>
+      <c r="H19">
+        <v>52.5</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>0.7</v>
+      </c>
+      <c r="B20">
+        <v>42.5</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>97.5</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.7</v>
+      </c>
+      <c r="H20">
+        <v>42.5</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>97.5</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>0.7</v>
+      </c>
+      <c r="B21">
+        <v>52.5</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.7</v>
+      </c>
+      <c r="H21">
+        <v>52.5</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <v>0.7</v>
+      </c>
+      <c r="B22">
+        <v>52.5</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.7</v>
+      </c>
+      <c r="H22">
+        <v>52.5</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>2.5</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>62.5</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>2.5</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>62.5</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>22.5</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>82.5</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>22.5</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>82.5</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>17.5</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>77.5</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>17.5</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>77.5</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>27.5</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>82.5</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>27.5</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>82.5</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>27.5</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>77.5</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>27.5</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>77.5</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Resultater/Resultater.xlsx
+++ b/Resultater/Resultater.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="28515" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="28515" windowHeight="12600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="d4 400_24" sheetId="1" r:id="rId1"/>
     <sheet name="d3 400_24" sheetId="2" r:id="rId2"/>
-    <sheet name="Ark3" sheetId="3" r:id="rId3"/>
+    <sheet name="d4 630_24" sheetId="3" r:id="rId3"/>
+    <sheet name="d3 630_24" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="4">
   <si>
     <t>Pressure</t>
   </si>
@@ -1294,10 +1295,10 @@
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>'d3 400_24'!$B$2:$B$55</c:f>
+              <c:f>'d3 400_24'!$B$2:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>22.5</c:v>
                 </c:pt>
@@ -1308,72 +1309,48 @@
                   <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>42.5</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>52.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>52.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>27.5</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>27.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>37.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>45</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>52.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>42.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>52.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>52.5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>27.5</c:v>
-                </c:pt>
-                <c:pt idx="25">
                   <c:v>27.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -1381,10 +1358,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'d3 400_24'!$A$2:$A$55</c:f>
+              <c:f>'d3 400_24'!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0.6</c:v>
                 </c:pt>
@@ -1395,19 +1372,19 @@
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.7</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.7</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.6</c:v>
@@ -1422,45 +1399,21 @@
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.6</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="25">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1492,19 +1445,67 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'d3 400_24'!$B$56:$B$84</c:f>
+              <c:f>'d3 400_24'!$B$20:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'d3 400_24'!$A$56:$A$84</c:f>
+              <c:f>'d3 400_24'!$A$20:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1533,10 +1534,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'d3 400_24'!$D$2:$D$19</c:f>
+              <c:f>'d3 400_24'!$J$2:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>72.5</c:v>
                 </c:pt>
@@ -1546,31 +1547,25 @@
                 <c:pt idx="2">
                   <c:v>90</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62.5</c:v>
+                </c:pt>
                 <c:pt idx="8">
-                  <c:v>80</c:v>
+                  <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>57.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>62.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>62.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>72.5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="16">
                   <c:v>105</c:v>
                 </c:pt>
               </c:numCache>
@@ -1578,10 +1573,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'d3 400_24'!$A$2:$A$19</c:f>
+              <c:f>'d3 400_24'!$G$2:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.6</c:v>
                 </c:pt>
@@ -1592,48 +1587,24 @@
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.7</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.7</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="17">
                   <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
@@ -1665,11 +1636,17 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'d3 400_24'!$D$20:$D$55</c:f>
+              <c:f>'d3 400_24'!$J$12:$J$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>97.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
@@ -1692,15 +1669,15 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'d3 400_24'!$A$20:$A$55</c:f>
+              <c:f>'d3 400_24'!$G$12:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.7</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.7</c:v>
@@ -1849,6 +1826,497 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nb-NO"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nb-NO"/>
+              <a:t>Interruption test for geometry</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nb-NO" baseline="0"/>
+              <a:t> one</a:t>
+            </a:r>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1. CZ Faliure</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="44"/>
+            <c:marker>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:marker>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'d4 630_24'!$B$2:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'d4 630_24'!$A$2:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1. CZ Success</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'d4 630_24'!$B$20:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'d4 630_24'!$A$20:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>2. CZ Faliure</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'d4 630_24'!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'d4 630_24'!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>2. CZ Success</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'d4 630_24'!$J$12:$J$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'d4 630_24'!$G$12:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="65986560"/>
+        <c:axId val="65988864"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="65986560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:alpha val="25000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO"/>
+                  <a:t>possition in nozzle</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nb-NO" baseline="0"/>
+                  <a:t> for CZ [mm]</a:t>
+                </a:r>
+                <a:endParaRPr lang="nb-NO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="65988864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="65988864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.1"/>
+          <c:min val="0.2"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO"/>
+                  <a:t>Pressure difference</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nb-NO" baseline="0"/>
+                  <a:t> [bar]</a:t>
+                </a:r>
+                <a:endParaRPr lang="nb-NO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="65986560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1898,6 +2366,41 @@
       <xdr:colOff>273424</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>197224</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4566,8 +5069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4702,102 +5205,162 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="B5">
-        <v>42.5</v>
+        <v>27.5</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>80</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H5">
-        <v>42.5</v>
+        <v>27.5</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>80</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="B6">
-        <v>50</v>
+        <v>2.5</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>57.5</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H6">
-        <v>50</v>
+        <v>2.5</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>57.5</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="B7">
-        <v>52.5</v>
+        <v>12.5</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>62.5</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H7">
-        <v>52.5</v>
+        <v>12.5</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>62.5</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="B8">
-        <v>52.5</v>
+        <v>55</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>110</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H8">
-        <v>52.5</v>
+        <v>55</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>110</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="B9">
-        <v>50</v>
+        <v>27.5</v>
       </c>
       <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>85</v>
+      </c>
+      <c r="E9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H9">
-        <v>50</v>
+        <v>7.5</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>62.5</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -4805,13 +5368,13 @@
         <v>0.6</v>
       </c>
       <c r="B10">
-        <v>27.5</v>
+        <v>7.5</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>80</v>
+        <v>62.5</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4820,13 +5383,13 @@
         <v>0.6</v>
       </c>
       <c r="H10">
-        <v>27.5</v>
+        <v>17.5</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>80</v>
+        <v>72.5</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -4837,13 +5400,13 @@
         <v>0.6</v>
       </c>
       <c r="B11">
-        <v>2.5</v>
+        <v>17.5</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>57.5</v>
+        <v>72.5</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -4852,13 +5415,13 @@
         <v>0.6</v>
       </c>
       <c r="H11">
-        <v>2.5</v>
+        <v>45</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>57.5</v>
+        <v>105</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -4869,31 +5432,31 @@
         <v>0.6</v>
       </c>
       <c r="B12">
-        <v>12.5</v>
+        <v>37.5</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>62.5</v>
+        <v>90</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>0.6</v>
       </c>
       <c r="H12">
-        <v>12.5</v>
+        <v>27.5</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>62.5</v>
+        <v>85</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -4901,13 +5464,13 @@
         <v>0.6</v>
       </c>
       <c r="B13">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -4916,45 +5479,45 @@
         <v>0.6</v>
       </c>
       <c r="H13">
-        <v>55</v>
+        <v>37.5</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="B14">
-        <v>27.5</v>
+        <v>42.5</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>85</v>
+        <v>97.5</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H14">
-        <v>27.5</v>
+        <v>42.5</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>85</v>
+        <v>97.5</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -4962,10 +5525,10 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="B15">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -4974,13 +5537,13 @@
         <v>62.5</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -4989,68 +5552,68 @@
         <v>62.5</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>17.5</v>
+        <v>22.5</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>72.5</v>
+        <v>82.5</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H16">
-        <v>17.5</v>
+        <v>22.5</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>72.5</v>
+        <v>82.5</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="B17">
-        <v>37.5</v>
+        <v>17.5</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>90</v>
+        <v>77.5</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H17">
-        <v>37.5</v>
+        <v>17.5</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>90</v>
+        <v>77.5</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -5058,53 +5621,65 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="B18">
-        <v>45</v>
+        <v>27.5</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>105</v>
+        <v>82.5</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>45</v>
+        <v>27.5</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>105</v>
+        <v>82.5</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="B19">
-        <v>52.5</v>
+        <v>27.5</v>
       </c>
       <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>77.5</v>
+      </c>
+      <c r="E19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H19">
-        <v>52.5</v>
+        <v>27.5</v>
       </c>
       <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>77.5</v>
+      </c>
+      <c r="K19">
         <v>1</v>
       </c>
     </row>
@@ -5116,12 +5691,6 @@
         <v>42.5</v>
       </c>
       <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>97.5</v>
-      </c>
-      <c r="E20">
         <v>1</v>
       </c>
       <c r="G20">
@@ -5131,12 +5700,6 @@
         <v>42.5</v>
       </c>
       <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>97.5</v>
-      </c>
-      <c r="K20">
         <v>1</v>
       </c>
     </row>
@@ -5145,7 +5708,7 @@
         <v>0.7</v>
       </c>
       <c r="B21">
-        <v>52.5</v>
+        <v>50</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -5154,7 +5717,7 @@
         <v>0.7</v>
       </c>
       <c r="H21">
-        <v>52.5</v>
+        <v>50</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -5182,162 +5745,660 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="B23">
-        <v>2.5</v>
+        <v>52.5</v>
       </c>
       <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>62.5</v>
-      </c>
-      <c r="E23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H23">
-        <v>2.5</v>
+        <v>52.5</v>
       </c>
       <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>62.5</v>
-      </c>
-      <c r="K23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="B24">
-        <v>22.5</v>
+        <v>50</v>
       </c>
       <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>82.5</v>
-      </c>
-      <c r="E24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H24">
-        <v>22.5</v>
+        <v>50</v>
       </c>
       <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>82.5</v>
-      </c>
-      <c r="K24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="B25">
-        <v>17.5</v>
+        <v>52.5</v>
       </c>
       <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>77.5</v>
-      </c>
-      <c r="E25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H25">
-        <v>17.5</v>
+        <v>52.5</v>
       </c>
       <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>77.5</v>
-      </c>
-      <c r="K25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="B26">
-        <v>27.5</v>
+        <v>52.5</v>
       </c>
       <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>82.5</v>
-      </c>
-      <c r="E26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H26">
-        <v>27.5</v>
+        <v>52.5</v>
       </c>
       <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>82.5</v>
-      </c>
-      <c r="K26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
+        <v>0.7</v>
+      </c>
+      <c r="B27">
+        <v>52.5</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.7</v>
+      </c>
+      <c r="H27">
+        <v>52.5</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="G2:K27">
+    <sortCondition ref="K2:K27"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>0.8</v>
+      </c>
+      <c r="B2">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>0.8</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>88</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>0.8</v>
+      </c>
+      <c r="B4">
+        <v>55</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>102</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>0.8</v>
+      </c>
+      <c r="B5">
+        <v>46</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>94</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>0.8</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>63</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>0.8</v>
+      </c>
+      <c r="B7">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>82</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>0.9</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>56</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>0.9</v>
+      </c>
+      <c r="B9">
+        <v>50</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>0.9</v>
+      </c>
+      <c r="B10">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>98</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>0.9</v>
+      </c>
+      <c r="B11">
+        <v>45</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>95</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>0.9</v>
+      </c>
+      <c r="B12">
+        <v>49</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>98</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>0.9</v>
+      </c>
+      <c r="B13">
+        <v>27</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>0.9</v>
+      </c>
+      <c r="B14">
+        <v>54</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>42</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>43</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>91</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>47</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>96</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>51</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>97</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>44</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>92</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B20">
+        <v>31</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B21">
+        <v>56</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B22">
+        <v>54</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B23">
+        <v>48</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B24">
+        <v>53</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B25">
+        <v>48</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>97</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B26">
+        <v>45</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>1.2</v>
+      </c>
       <c r="B27">
-        <v>27.5</v>
+        <v>44</v>
       </c>
       <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>77.5</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>1.2</v>
+      </c>
+      <c r="B28">
+        <v>44</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>1.2</v>
+      </c>
+      <c r="B29">
+        <v>51</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>1.2</v>
+      </c>
+      <c r="B30">
+        <v>52</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>1.2</v>
+      </c>
+      <c r="B31">
+        <v>48</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>1.2</v>
+      </c>
+      <c r="B32">
+        <v>13</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>68</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>67</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>0.6</v>
+      </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>63</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>1.4</v>
+      </c>
+      <c r="B35">
+        <v>20</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>73</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>1.8</v>
+      </c>
+      <c r="B36">
+        <v>13</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>68</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
         <v>2</v>
       </c>
-      <c r="H27">
-        <v>27.5</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>77.5</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
+      <c r="B37">
+        <v>16</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>70</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5346,7 +6407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Resultater/Resultater.xlsx
+++ b/Resultater/Resultater.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="4">
   <si>
     <t>Pressure</t>
   </si>
@@ -1894,73 +1894,82 @@
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>'d4 630_24'!$B$2:$B$19</c:f>
+              <c:f>'d4 630_24'!$B$2:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>35</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>27</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>54</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>47</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>51</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44</c:v>
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'d4 630_24'!$A$2:$A$19</c:f>
+              <c:f>'d4 630_24'!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0.8</c:v>
                 </c:pt>
@@ -1977,7 +1986,7 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.8</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.9</c:v>
@@ -1992,28 +2001,37 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.9</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.9</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.9</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2044,54 +2062,75 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'d4 630_24'!$B$20:$B$27</c:f>
+              <c:f>'d4 630_24'!$B$23:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'d4 630_24'!$A$20:$A$27</c:f>
+              <c:f>'d4 630_24'!$A$23:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.1000000000000001</c:v>
@@ -2103,6 +2142,27 @@
                   <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>1.2</c:v>
                 </c:pt>
               </c:numCache>
@@ -2133,19 +2193,121 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'d4 630_24'!$J$2:$J$11</c:f>
+              <c:f>'d4 630_24'!$J$2:$J$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>70</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'d4 630_24'!$G$2:$G$11</c:f>
+              <c:f>'d4 630_24'!$G$2:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2175,19 +2337,43 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'d4 630_24'!$J$12:$J$19</c:f>
+              <c:f>'d4 630_24'!$J$19:$J$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'d4 630_24'!$G$12:$G$19</c:f>
+              <c:f>'d4 630_24'!$G$19:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2391,16 +2577,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>197224</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>130549</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5854,15 +6040,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="V56" sqref="V56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5878,137 +6064,284 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>0.8</v>
       </c>
       <c r="B2">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>88</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.8</v>
+      </c>
+      <c r="H2">
+        <v>40</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>88</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>0.8</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="G3">
+        <v>0.8</v>
+      </c>
+      <c r="H3">
+        <v>55</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>102</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>0.8</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="G4">
+        <v>0.8</v>
+      </c>
+      <c r="H4">
+        <v>46</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>94</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>0.8</v>
       </c>
       <c r="B5">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="G5">
+        <v>0.8</v>
+      </c>
+      <c r="H5">
+        <v>12</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>63</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>0.8</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="G6">
+        <v>0.8</v>
+      </c>
+      <c r="H6">
+        <v>35</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>82</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="B7">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="G7">
+        <v>0.9</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>56</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>0.9</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="G8">
+        <v>0.9</v>
+      </c>
+      <c r="H8">
+        <v>50</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>98</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>0.9</v>
       </c>
       <c r="B9">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>95</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0.9</v>
+      </c>
+      <c r="H9">
+        <v>45</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>95</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>0.9</v>
       </c>
       <c r="B10">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -6019,389 +6352,710 @@
       <c r="E10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="G10">
+        <v>0.9</v>
+      </c>
+      <c r="H10">
+        <v>49</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>98</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>0.9</v>
       </c>
       <c r="B11">
+        <v>54</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0.9</v>
+      </c>
+      <c r="H11">
+        <v>54</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>100</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>43</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>91</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>43</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>91</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>47</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>96</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>47</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>96</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>51</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>97</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>51</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>97</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>44</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>92</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>44</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>92</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B16">
+        <v>48</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>97</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H16">
+        <v>48</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>97</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>1.2</v>
+      </c>
+      <c r="B17">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>68</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.6</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>63</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>67</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>16</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>70</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>0.6</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>63</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1.2</v>
+      </c>
+      <c r="H19">
+        <v>13</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>68</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>1.4</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>73</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>11</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>67</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>1.8</v>
+      </c>
+      <c r="B21">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>68</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.4</v>
+      </c>
+      <c r="H21">
+        <v>20</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>73</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>70</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1.8</v>
+      </c>
+      <c r="H22">
+        <v>13</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>68</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23">
+        <v>0.8</v>
+      </c>
+      <c r="B23">
+        <v>35</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.8</v>
+      </c>
+      <c r="H23">
+        <v>35</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <v>0.9</v>
+      </c>
+      <c r="B24">
+        <v>50</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.9</v>
+      </c>
+      <c r="H24">
+        <v>50</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>0.9</v>
+      </c>
+      <c r="B25">
+        <v>27</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.9</v>
+      </c>
+      <c r="H25">
+        <v>27</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>42</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>42</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B27">
+        <v>31</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H27">
+        <v>31</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B28">
+        <v>56</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H28">
+        <v>56</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B29">
+        <v>54</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H29">
+        <v>54</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B30">
+        <v>48</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H30">
+        <v>48</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B31">
+        <v>53</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H31">
+        <v>53</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B32">
         <v>45</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>95</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>0.9</v>
-      </c>
-      <c r="B12">
-        <v>49</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>98</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>0.9</v>
-      </c>
-      <c r="B13">
-        <v>27</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>0.9</v>
-      </c>
-      <c r="B14">
-        <v>54</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>100</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>42</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <v>43</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>91</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17">
-        <v>47</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>96</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18">
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H32">
+        <v>45</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <v>1.2</v>
+      </c>
+      <c r="B33">
+        <v>44</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1.2</v>
+      </c>
+      <c r="H33">
+        <v>44</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>1.2</v>
+      </c>
+      <c r="B34">
+        <v>44</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1.2</v>
+      </c>
+      <c r="H34">
+        <v>44</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>1.2</v>
+      </c>
+      <c r="B35">
         <v>51</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>97</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>44</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>92</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B20">
-        <v>31</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B21">
-        <v>56</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B22">
-        <v>54</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B23">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1.2</v>
+      </c>
+      <c r="H35">
+        <v>51</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <v>1.2</v>
+      </c>
+      <c r="B36">
+        <v>52</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1.2</v>
+      </c>
+      <c r="H36">
+        <v>52</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
+        <v>1.2</v>
+      </c>
+      <c r="B37">
         <v>48</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B24">
-        <v>53</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B25">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1.2</v>
+      </c>
+      <c r="H37">
         <v>48</v>
       </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>97</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B26">
-        <v>45</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27">
-        <v>1.2</v>
-      </c>
-      <c r="B27">
-        <v>44</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28">
-        <v>1.2</v>
-      </c>
-      <c r="B28">
-        <v>44</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29">
-        <v>1.2</v>
-      </c>
-      <c r="B29">
-        <v>51</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30">
-        <v>1.2</v>
-      </c>
-      <c r="B30">
-        <v>52</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31">
-        <v>1.2</v>
-      </c>
-      <c r="B31">
-        <v>48</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32">
-        <v>1.2</v>
-      </c>
-      <c r="B32">
-        <v>13</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>68</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33">
-        <v>11</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>67</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34">
-        <v>0.6</v>
-      </c>
-      <c r="B34">
-        <v>6</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>63</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35">
-        <v>1.4</v>
-      </c>
-      <c r="B35">
-        <v>20</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>73</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36">
-        <v>1.8</v>
-      </c>
-      <c r="B36">
-        <v>13</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>68</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37">
-        <v>2</v>
-      </c>
-      <c r="B37">
-        <v>16</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>70</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
+      <c r="I37">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="G2:K37">
+    <sortCondition ref="K2:K37"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Resultater/Resultater.xlsx
+++ b/Resultater/Resultater.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="28515" windowHeight="12600" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="28515" windowHeight="12600" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="d4 400_24" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="4">
   <si>
     <t>Pressure</t>
   </si>
@@ -95,7 +95,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="nb-NO" baseline="0"/>
-              <a:t> one</a:t>
+              <a:t> one at 400 A</a:t>
             </a:r>
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
@@ -1246,7 +1246,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="nb-NO" baseline="0"/>
-              <a:t> one</a:t>
+              <a:t> two at 400 A</a:t>
             </a:r>
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
@@ -1845,7 +1845,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="nb-NO" baseline="0"/>
-              <a:t> one</a:t>
+              <a:t> one at 630</a:t>
             </a:r>
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
@@ -2503,6 +2503,695 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nb-NO"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nb-NO"/>
+              <a:t>Interruption test for geometry</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nb-NO" baseline="0"/>
+              <a:t> two at 630 A</a:t>
+            </a:r>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1. CZ Faliure</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="44"/>
+            <c:marker>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:marker>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'d3 630_24'!$B$2:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'d3 630_24'!$A$2:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1. CZ Success</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'d3 630_24'!$B$20:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'d3 630_24'!$A$20:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>2. CZ Faliure</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'d3 630_24'!$J$2:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'d3 630_24'!$G$2:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>2. CZ Success</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'d3 630_24'!$J$13:$J$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'d3 630_24'!$G$13:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="69875968"/>
+        <c:axId val="69886720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="69875968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:alpha val="25000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO"/>
+                  <a:t>possition in nozzle</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nb-NO" baseline="0"/>
+                  <a:t> for CZ [mm]</a:t>
+                </a:r>
+                <a:endParaRPr lang="nb-NO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="69886720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="69886720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.1"/>
+          <c:min val="0.2"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO"/>
+                  <a:t>Pressure difference</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nb-NO" baseline="0"/>
+                  <a:t> [bar]</a:t>
+                </a:r>
+                <a:endParaRPr lang="nb-NO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="69875968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2586,6 +3275,41 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>130549</xdr:colOff>
       <xdr:row>81</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>435349</xdr:colOff>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6042,8 +6766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="V56" sqref="V56"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7063,12 +7787,1087 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>0.9</v>
+      </c>
+      <c r="B2">
+        <v>46</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>95</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.9</v>
+      </c>
+      <c r="H2">
+        <v>56</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>105</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>0.9</v>
+      </c>
+      <c r="B3">
+        <v>56</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>105</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0.9</v>
+      </c>
+      <c r="H3">
+        <v>37</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>89</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>0.9</v>
+      </c>
+      <c r="B4">
+        <v>37</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>89</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0.9</v>
+      </c>
+      <c r="H4">
+        <v>48</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>97</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>0.9</v>
+      </c>
+      <c r="B5">
+        <v>48</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>97</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0.9</v>
+      </c>
+      <c r="H5">
+        <v>45</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>97</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>0.9</v>
+      </c>
+      <c r="B6">
+        <v>56</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>105</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>37</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>85</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>0.9</v>
+      </c>
+      <c r="B7">
+        <v>45</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>97</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>46</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>94</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>37</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>85</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>44</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>92</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>42</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>90</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H9">
+        <v>45</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>97</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>46</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>94</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H10">
+        <v>42</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>94</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>44</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>92</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H11">
+        <v>40</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>91</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B12">
+        <v>45</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>97</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>11</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>60</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B13">
+        <v>42</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>94</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0.9</v>
+      </c>
+      <c r="H13">
+        <v>46</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>95</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B14">
+        <v>42</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>94</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.9</v>
+      </c>
+      <c r="H14">
+        <v>56</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>105</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B15">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>91</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>42</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>90</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>1.2</v>
+      </c>
+      <c r="B16">
+        <v>44</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>93</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H16">
+        <v>42</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>94</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>1.3</v>
+      </c>
+      <c r="B17">
+        <v>43</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>92</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.2</v>
+      </c>
+      <c r="H17">
+        <v>44</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>93</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>60</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1.3</v>
+      </c>
+      <c r="H18">
+        <v>43</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>92</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>58</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>58</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>49</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>49</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>36</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>36</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>44</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>44</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>50</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>50</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>46</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>46</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>0.9</v>
+      </c>
+      <c r="B25">
+        <v>53</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.9</v>
+      </c>
+      <c r="H25">
+        <v>53</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>41</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>41</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B27">
+        <v>56</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H27">
+        <v>56</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B28">
+        <v>40</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H28">
+        <v>40</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
+        <v>1.2</v>
+      </c>
+      <c r="B29">
+        <v>31</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.2</v>
+      </c>
+      <c r="H29">
+        <v>31</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30">
+        <v>1.2</v>
+      </c>
+      <c r="B30">
+        <v>35</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.2</v>
+      </c>
+      <c r="H30">
+        <v>35</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31">
+        <v>1.2</v>
+      </c>
+      <c r="B31">
+        <v>41</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.2</v>
+      </c>
+      <c r="H31">
+        <v>41</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32">
+        <v>1.2</v>
+      </c>
+      <c r="B32">
+        <v>42</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1.2</v>
+      </c>
+      <c r="H32">
+        <v>42</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <v>1.2</v>
+      </c>
+      <c r="B33">
+        <v>43</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1.2</v>
+      </c>
+      <c r="H33">
+        <v>43</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>1.3</v>
+      </c>
+      <c r="B34">
+        <v>41</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1.3</v>
+      </c>
+      <c r="H34">
+        <v>41</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>1.3</v>
+      </c>
+      <c r="B35">
+        <v>40</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1.3</v>
+      </c>
+      <c r="H35">
+        <v>40</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <v>1.3</v>
+      </c>
+      <c r="B36">
+        <v>43</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1.3</v>
+      </c>
+      <c r="H36">
+        <v>43</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
+        <v>1.3</v>
+      </c>
+      <c r="B37">
+        <v>45</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1.3</v>
+      </c>
+      <c r="H37">
+        <v>45</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
+        <v>1.4</v>
+      </c>
+      <c r="B38">
+        <v>42</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1.4</v>
+      </c>
+      <c r="H38">
+        <v>42</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
+        <v>1.4</v>
+      </c>
+      <c r="B39">
+        <v>45</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1.4</v>
+      </c>
+      <c r="H39">
+        <v>45</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
+        <v>1.4</v>
+      </c>
+      <c r="B40">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1.4</v>
+      </c>
+      <c r="H40">
+        <v>40</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
+        <v>1.4</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1.4</v>
+      </c>
+      <c r="H41">
+        <v>40</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
+        <v>1.4</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1.4</v>
+      </c>
+      <c r="H42">
+        <v>41</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="G2:K42">
+    <sortCondition ref="K2:K42"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Resultater/Resultater.xlsx
+++ b/Resultater/Resultater.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="28515" windowHeight="12600" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="28515" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="d4 400_24" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="17">
   <si>
     <t>Pressure</t>
   </si>
@@ -29,6 +29,45 @@
   </si>
   <si>
     <t>2. CZ</t>
+  </si>
+  <si>
+    <t>Successrate</t>
+  </si>
+  <si>
+    <t>total tests</t>
+  </si>
+  <si>
+    <t>Number of tests in areaOutside the nozzle 35 +</t>
+  </si>
+  <si>
+    <t>Total successrate</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Amount of successful</t>
+  </si>
+  <si>
+    <t>Test less than 5 and between 25-35 are dicarded due to transcation effects from the nozzle</t>
+  </si>
+  <si>
+    <t>Inside Nozzle</t>
+  </si>
+  <si>
+    <t>Outside</t>
+  </si>
+  <si>
+    <t>Successrate of 1. CZ</t>
+  </si>
+  <si>
+    <t>Successful</t>
+  </si>
+  <si>
+    <t>Successrate outside nozzle</t>
+  </si>
+  <si>
+    <t>Denne viser at når man kommer over et hvist trykk så bryter den like bra på 1. som 2. CZ, men den bryter ikke inni, derfor er det nyttig å ha med to nullgjennomganger.</t>
   </si>
 </sst>
 </file>
@@ -64,9 +103,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -158,7 +198,7 @@
                   <c:v>52.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.5</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>7.5</c:v>
@@ -704,6 +744,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>2. CZ Failure</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575">
               <a:noFill/>
@@ -850,6 +893,9 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:v>2. CZ Success</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575">
               <a:noFill/>
@@ -1144,11 +1190,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="nb-NO"/>
-                  <a:t>possition in nozzle</a:t>
+                  <a:t>Position</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="nb-NO" baseline="0"/>
-                  <a:t> for CZ [mm]</a:t>
+                  <a:t> in nozzle for current zero crossing [mm]</a:t>
                 </a:r>
                 <a:endParaRPr lang="nb-NO"/>
               </a:p>
@@ -1221,13 +1267,320 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nb-NO"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Total successrate</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'d4 400_24'!$V$60:$V$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'d4 400_24'!$AD$60:$AD$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.666666666666657</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.777777777777786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90.909090909090907</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1. CZ chance of interruption if outside nozzle</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'d4 400_24'!$V$60:$V$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'d4 400_24'!$AA$77:$AA$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.666666666666657</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>2. CZ chance of interruption if first CZ failed</c:v>
+          </c:tx>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="9525" cmpd="sng">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'d4 400_24'!$AB$60:$AB$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.714285714285708</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="89741184"/>
+        <c:axId val="90006272"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="89741184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="90006272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="90006272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="89741184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="nb-NO"/>
   <c:chart>
@@ -1262,7 +1615,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>1. CZ Faliure</c:v>
+            <c:v>1. CZ Failure</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575">
@@ -1514,7 +1867,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>2. CZ Faliure</c:v>
+            <c:v>2. CZ Failure</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575">
@@ -1738,18 +2091,34 @@
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
-                  <a:defRPr/>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="nb-NO"/>
-                  <a:t>possition in nozzle</a:t>
+                  <a:t>Position in nozzle for current zero crossing [mm]</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="nb-NO" baseline="0"/>
-                  <a:t> for CZ [mm]</a:t>
-                </a:r>
-                <a:endParaRPr lang="nb-NO"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1826,7 +2195,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="nb-NO"/>
   <c:chart>
@@ -1845,7 +2214,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="nb-NO" baseline="0"/>
-              <a:t> one at 630</a:t>
+              <a:t> one at 630 A</a:t>
             </a:r>
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
@@ -1861,7 +2230,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>1. CZ Faliure</c:v>
+            <c:v>1. CZFailure</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575">
@@ -2173,7 +2542,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>2. CZ Faliure</c:v>
+            <c:v>2. CZ Failure</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575">
@@ -2415,18 +2784,34 @@
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
-                  <a:defRPr/>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="nb-NO"/>
-                  <a:t>possition in nozzle</a:t>
+                  <a:t>Position in nozzle for current zero crossing [mm]</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="nb-NO" baseline="0"/>
-                  <a:t> for CZ [mm]</a:t>
-                </a:r>
-                <a:endParaRPr lang="nb-NO"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2503,7 +2888,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="nb-NO"/>
   <c:chart>
@@ -2538,7 +2923,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>1. CZ Faliure</c:v>
+            <c:v>1. CZ Failure</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575">
@@ -2880,7 +3265,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>2. CZ Faliure</c:v>
+            <c:v>2. CZ Failure</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575">
@@ -3104,18 +3489,34 @@
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
-                  <a:defRPr/>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="nb-NO"/>
-                  <a:t>possition in nozzle</a:t>
+                  <a:t>Position in nozzle for current zero crossing [mm]</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="nb-NO" baseline="0"/>
-                  <a:t> for CZ [mm]</a:t>
-                </a:r>
-                <a:endParaRPr lang="nb-NO"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3219,6 +3620,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>179295</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>156881</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>78440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3617,10 +4048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:AF125"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M75" sqref="M75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3758,7 +4189,7 @@
         <v>0.3</v>
       </c>
       <c r="B5">
-        <v>25.5</v>
+        <v>27.5</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3773,7 +4204,7 @@
         <v>0.3</v>
       </c>
       <c r="H5">
-        <v>25.5</v>
+        <v>27.5</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -5161,7 +5592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:30">
       <c r="A49">
         <v>1.8</v>
       </c>
@@ -5193,7 +5624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:30">
       <c r="A50">
         <v>2</v>
       </c>
@@ -5225,7 +5656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:30">
       <c r="A51">
         <v>2</v>
       </c>
@@ -5257,7 +5688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:30">
       <c r="A52">
         <v>2</v>
       </c>
@@ -5289,7 +5720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:30">
       <c r="A53">
         <v>2</v>
       </c>
@@ -5321,7 +5752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:30">
       <c r="A54">
         <v>2</v>
       </c>
@@ -5353,7 +5784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:30">
       <c r="A55">
         <v>2</v>
       </c>
@@ -5385,7 +5816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:30">
       <c r="A56">
         <v>0.5</v>
       </c>
@@ -5405,7 +5836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:30">
       <c r="A57">
         <v>0.5</v>
       </c>
@@ -5424,8 +5855,11 @@
       <c r="I57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="W57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30">
       <c r="A58">
         <v>0.5</v>
       </c>
@@ -5444,8 +5878,14 @@
       <c r="I58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="W58" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30">
       <c r="A59">
         <v>0.5</v>
       </c>
@@ -5464,8 +5904,50 @@
       <c r="I59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="P59" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>1</v>
+      </c>
+      <c r="R59" t="s">
+        <v>2</v>
+      </c>
+      <c r="S59" t="s">
+        <v>1</v>
+      </c>
+      <c r="T59" t="s">
+        <v>3</v>
+      </c>
+      <c r="V59" t="s">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>9</v>
+      </c>
+      <c r="X59" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30">
       <c r="A60">
         <v>0.6</v>
       </c>
@@ -5484,8 +5966,52 @@
       <c r="I60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="P60">
+        <v>0.3</v>
+      </c>
+      <c r="Q60">
+        <v>7.5</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>57.5</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>0.3</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <f>W60/Y60*100</f>
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <v>3</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>3</v>
+      </c>
+      <c r="AB60">
+        <f>Z60/AA60*100</f>
+        <v>0</v>
+      </c>
+      <c r="AC60">
+        <v>3</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30">
       <c r="A61">
         <v>0.6</v>
       </c>
@@ -5504,8 +6030,52 @@
       <c r="I61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="P61">
+        <v>0.3</v>
+      </c>
+      <c r="Q61">
+        <v>7.5</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>62.5</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <v>0.4</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <f>W61/Y61*100</f>
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <v>5</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>5</v>
+      </c>
+      <c r="AB61">
+        <f>Z61/AA61*100</f>
+        <v>0</v>
+      </c>
+      <c r="AC61">
+        <v>5</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30">
       <c r="A62">
         <v>0.6</v>
       </c>
@@ -5524,8 +6094,53 @@
       <c r="I62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="P62">
+        <v>0.3</v>
+      </c>
+      <c r="Q62">
+        <v>52.5</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>95</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>0.5</v>
+      </c>
+      <c r="W62">
+        <v>4</v>
+      </c>
+      <c r="X62">
+        <f>W62/Y62*100</f>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="Y62">
+        <v>6</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>2</v>
+      </c>
+      <c r="AB62">
+        <f>Z62/AA62*100</f>
+        <v>0</v>
+      </c>
+      <c r="AC62">
+        <v>6</v>
+      </c>
+      <c r="AD62">
+        <f>X62</f>
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30">
       <c r="A63">
         <v>0.6</v>
       </c>
@@ -5544,8 +6159,53 @@
       <c r="I63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="P63">
+        <v>0.4</v>
+      </c>
+      <c r="Q63">
+        <v>37.5</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>92.5</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <v>0.6</v>
+      </c>
+      <c r="W63">
+        <v>4</v>
+      </c>
+      <c r="X63">
+        <f>W63/Y63*100</f>
+        <v>44.444444444444443</v>
+      </c>
+      <c r="Y63">
+        <v>9</v>
+      </c>
+      <c r="Z63">
+        <v>3</v>
+      </c>
+      <c r="AA63">
+        <v>5</v>
+      </c>
+      <c r="AB63">
+        <f>Z63/AA63*100</f>
+        <v>60</v>
+      </c>
+      <c r="AC63">
+        <v>9</v>
+      </c>
+      <c r="AD63">
+        <f>(W63+Z63)/AC63*100</f>
+        <v>77.777777777777786</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30">
       <c r="A64">
         <v>0.6</v>
       </c>
@@ -5564,8 +6224,53 @@
       <c r="I64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="P64">
+        <v>0.4</v>
+      </c>
+      <c r="Q64">
+        <v>37.5</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>92.5</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>0.7</v>
+      </c>
+      <c r="W64">
+        <v>4</v>
+      </c>
+      <c r="X64">
+        <f>W64/Y64*100</f>
+        <v>36.363636363636367</v>
+      </c>
+      <c r="Y64">
+        <v>11</v>
+      </c>
+      <c r="Z64">
+        <v>6</v>
+      </c>
+      <c r="AA64">
+        <v>7</v>
+      </c>
+      <c r="AB64">
+        <f>Z64/AA64*100</f>
+        <v>85.714285714285708</v>
+      </c>
+      <c r="AC64">
+        <v>11</v>
+      </c>
+      <c r="AD64">
+        <f>(W64+Z64)/AC64*100</f>
+        <v>90.909090909090907</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30">
       <c r="A65">
         <v>0.6</v>
       </c>
@@ -5584,8 +6289,53 @@
       <c r="I65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="P65">
+        <v>0.4</v>
+      </c>
+      <c r="Q65">
+        <v>42.5</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>97.5</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>0.8</v>
+      </c>
+      <c r="W65">
+        <v>8</v>
+      </c>
+      <c r="X65">
+        <f>W65/Y65*100</f>
+        <v>50</v>
+      </c>
+      <c r="Y65">
+        <v>16</v>
+      </c>
+      <c r="Z65">
+        <v>8</v>
+      </c>
+      <c r="AA65">
+        <v>8</v>
+      </c>
+      <c r="AB65">
+        <f>Z65/AA65*100</f>
+        <v>100</v>
+      </c>
+      <c r="AC65">
+        <v>16</v>
+      </c>
+      <c r="AD65">
+        <f>(W65+Z65)/AC65*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30">
       <c r="A66">
         <v>0.6</v>
       </c>
@@ -5604,8 +6354,53 @@
       <c r="I66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="P66">
+        <v>0.4</v>
+      </c>
+      <c r="Q66">
+        <v>45</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>97.5</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>1</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <f>W66/Y66*100</f>
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>2</v>
+      </c>
+      <c r="Z66">
+        <v>2</v>
+      </c>
+      <c r="AA66">
+        <v>2</v>
+      </c>
+      <c r="AB66">
+        <f>Z66/AA66*100</f>
+        <v>100</v>
+      </c>
+      <c r="AC66">
+        <v>2</v>
+      </c>
+      <c r="AD66">
+        <f>(W66+Z66)/AC66*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30">
       <c r="A67">
         <v>0.7</v>
       </c>
@@ -5624,8 +6419,53 @@
       <c r="I67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="P67">
+        <v>0.4</v>
+      </c>
+      <c r="Q67">
+        <v>52.5</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>105</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>1.2</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <f>W67/Y67*100</f>
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <v>2</v>
+      </c>
+      <c r="Z67">
+        <v>2</v>
+      </c>
+      <c r="AA67">
+        <v>2</v>
+      </c>
+      <c r="AB67">
+        <f>Z67/AA67*100</f>
+        <v>100</v>
+      </c>
+      <c r="AC67">
+        <v>2</v>
+      </c>
+      <c r="AD67">
+        <f>(W67+Z67)/AC67*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30">
       <c r="A68">
         <v>0.7</v>
       </c>
@@ -5644,8 +6484,47 @@
       <c r="I68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="P68">
+        <v>0.5</v>
+      </c>
+      <c r="Q68">
+        <v>42.5</v>
+      </c>
+      <c r="R68">
+        <v>1</v>
+      </c>
+      <c r="V68">
+        <v>1.4</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <f>W68/Y68*100</f>
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <v>2</v>
+      </c>
+      <c r="Z68">
+        <v>2</v>
+      </c>
+      <c r="AA68">
+        <v>2</v>
+      </c>
+      <c r="AB68">
+        <f>Z68/AA68*100</f>
+        <v>100</v>
+      </c>
+      <c r="AC68">
+        <v>2</v>
+      </c>
+      <c r="AD68">
+        <f>(W68+Z68)/AC68*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30">
       <c r="A69">
         <v>0.7</v>
       </c>
@@ -5664,8 +6543,47 @@
       <c r="I69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="P69">
+        <v>0.5</v>
+      </c>
+      <c r="Q69">
+        <v>42.5</v>
+      </c>
+      <c r="R69">
+        <v>1</v>
+      </c>
+      <c r="V69">
+        <v>1.6</v>
+      </c>
+      <c r="W69">
+        <v>3</v>
+      </c>
+      <c r="X69">
+        <f>W69/Y69*100</f>
+        <v>75</v>
+      </c>
+      <c r="Y69">
+        <v>4</v>
+      </c>
+      <c r="Z69">
+        <v>1</v>
+      </c>
+      <c r="AA69">
+        <v>1</v>
+      </c>
+      <c r="AB69">
+        <f>Z69/AA69*100</f>
+        <v>100</v>
+      </c>
+      <c r="AC69">
+        <v>4</v>
+      </c>
+      <c r="AD69">
+        <f>(W69+Z69)/AC69*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30">
       <c r="A70">
         <v>0.7</v>
       </c>
@@ -5684,8 +6602,47 @@
       <c r="I70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="P70">
+        <v>0.5</v>
+      </c>
+      <c r="Q70">
+        <v>42.5</v>
+      </c>
+      <c r="R70">
+        <v>1</v>
+      </c>
+      <c r="V70">
+        <v>1.8</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <f>W70/Y70*100</f>
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>1</v>
+      </c>
+      <c r="Z70">
+        <v>1</v>
+      </c>
+      <c r="AA70">
+        <v>1</v>
+      </c>
+      <c r="AB70">
+        <f>Z70/AA70*100</f>
+        <v>100</v>
+      </c>
+      <c r="AC70">
+        <v>1</v>
+      </c>
+      <c r="AD70">
+        <f>(W70+Z70)/AC70*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30">
       <c r="A71">
         <v>0.8</v>
       </c>
@@ -5704,8 +6661,53 @@
       <c r="I71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="P71">
+        <v>0.5</v>
+      </c>
+      <c r="Q71">
+        <v>47.5</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>102.5</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>2</v>
+      </c>
+      <c r="W71">
+        <v>1</v>
+      </c>
+      <c r="X71">
+        <f>W71/Y71*100</f>
+        <v>20</v>
+      </c>
+      <c r="Y71">
+        <v>5</v>
+      </c>
+      <c r="Z71">
+        <v>3</v>
+      </c>
+      <c r="AA71">
+        <v>4</v>
+      </c>
+      <c r="AB71">
+        <f>Z71/AA71*100</f>
+        <v>75</v>
+      </c>
+      <c r="AC71">
+        <v>5</v>
+      </c>
+      <c r="AD71">
+        <f>(W71+Z71)/AC71*100</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30">
       <c r="A72">
         <v>0.8</v>
       </c>
@@ -5724,8 +6726,23 @@
       <c r="I72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="P72">
+        <v>0.5</v>
+      </c>
+      <c r="Q72">
+        <v>52.5</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>102.5</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30">
       <c r="A73">
         <v>0.8</v>
       </c>
@@ -5744,8 +6761,17 @@
       <c r="I73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="P73">
+        <v>0.5</v>
+      </c>
+      <c r="Q73">
+        <v>52.5</v>
+      </c>
+      <c r="R73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30">
       <c r="A74">
         <v>0.8</v>
       </c>
@@ -5764,8 +6790,26 @@
       <c r="I74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="P74">
+        <v>0.6</v>
+      </c>
+      <c r="Q74">
+        <v>12.5</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>62.5</v>
+      </c>
+      <c r="T74">
+        <v>1</v>
+      </c>
+      <c r="W74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30">
       <c r="A75">
         <v>0.8</v>
       </c>
@@ -5784,8 +6828,29 @@
       <c r="I75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="P75">
+        <v>0.6</v>
+      </c>
+      <c r="Q75">
+        <v>17.5</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>72.5</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30">
       <c r="A76">
         <v>0.8</v>
       </c>
@@ -5804,8 +6869,41 @@
       <c r="I76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="P76">
+        <v>0.6</v>
+      </c>
+      <c r="Q76">
+        <v>17.5</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>70</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="V76" t="s">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>14</v>
+      </c>
+      <c r="X76" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30">
       <c r="A77">
         <v>0.8</v>
       </c>
@@ -5824,8 +6922,42 @@
       <c r="I77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="P77">
+        <v>0.6</v>
+      </c>
+      <c r="Q77">
+        <v>17.5</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>72.5</v>
+      </c>
+      <c r="T77">
+        <v>1</v>
+      </c>
+      <c r="V77">
+        <v>0.3</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>2</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>1</v>
+      </c>
+      <c r="AA77">
+        <f>Y77/Z77*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30">
       <c r="A78">
         <v>0.8</v>
       </c>
@@ -5844,8 +6976,36 @@
       <c r="I78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="P78">
+        <v>0.6</v>
+      </c>
+      <c r="Q78">
+        <v>37.5</v>
+      </c>
+      <c r="R78">
+        <v>1</v>
+      </c>
+      <c r="V78">
+        <v>0.4</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>4</v>
+      </c>
+      <c r="AA78">
+        <f t="shared" ref="AA78:AA83" si="0">Y78/Z78*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30">
       <c r="A79">
         <v>0.8</v>
       </c>
@@ -5864,8 +7024,36 @@
       <c r="I79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="P79">
+        <v>0.6</v>
+      </c>
+      <c r="Q79">
+        <v>37.5</v>
+      </c>
+      <c r="R79">
+        <v>1</v>
+      </c>
+      <c r="V79">
+        <v>0.5</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <v>4</v>
+      </c>
+      <c r="Z79">
+        <v>6</v>
+      </c>
+      <c r="AA79">
+        <f t="shared" si="0"/>
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30">
       <c r="A80">
         <v>1.6</v>
       </c>
@@ -5884,8 +7072,36 @@
       <c r="I80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="P80">
+        <v>0.6</v>
+      </c>
+      <c r="Q80">
+        <v>37.5</v>
+      </c>
+      <c r="R80">
+        <v>1</v>
+      </c>
+      <c r="V80">
+        <v>0.6</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>4</v>
+      </c>
+      <c r="Y80">
+        <v>4</v>
+      </c>
+      <c r="Z80">
+        <v>5</v>
+      </c>
+      <c r="AA80">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:32">
       <c r="A81">
         <v>1.6</v>
       </c>
@@ -5904,8 +7120,42 @@
       <c r="I81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="P81">
+        <v>0.6</v>
+      </c>
+      <c r="Q81">
+        <v>42.5</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>97.5</v>
+      </c>
+      <c r="T81">
+        <v>1</v>
+      </c>
+      <c r="V81">
+        <v>0.7</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>6</v>
+      </c>
+      <c r="Y81">
+        <v>4</v>
+      </c>
+      <c r="Z81">
+        <v>5</v>
+      </c>
+      <c r="AA81">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:32">
       <c r="A82">
         <v>1.6</v>
       </c>
@@ -5924,8 +7174,36 @@
       <c r="I82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="P82">
+        <v>0.6</v>
+      </c>
+      <c r="Q82">
+        <v>47.5</v>
+      </c>
+      <c r="R82">
+        <v>1</v>
+      </c>
+      <c r="V82">
+        <v>0.8</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>8</v>
+      </c>
+      <c r="Y82">
+        <v>8</v>
+      </c>
+      <c r="Z82">
+        <v>8</v>
+      </c>
+      <c r="AA82">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:32">
       <c r="A83">
         <v>1.6</v>
       </c>
@@ -5944,8 +7222,38 @@
       <c r="I83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="P83">
+        <v>0.7</v>
+      </c>
+      <c r="Q83">
+        <v>7.5</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83" s="1">
+        <v>60</v>
+      </c>
+      <c r="T83" s="1">
+        <v>1</v>
+      </c>
+      <c r="V83">
+        <v>1</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <v>2</v>
+      </c>
+      <c r="Y83">
+        <v>0</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:32">
       <c r="A84">
         <v>2</v>
       </c>
@@ -5964,10 +7272,714 @@
       <c r="I84">
         <v>1</v>
       </c>
+      <c r="P84">
+        <v>0.7</v>
+      </c>
+      <c r="Q84">
+        <v>12.5</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>62.5</v>
+      </c>
+      <c r="T84">
+        <v>1</v>
+      </c>
+      <c r="V84">
+        <v>1.2</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="X84">
+        <v>2</v>
+      </c>
+      <c r="Y84">
+        <v>0</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:32">
+      <c r="P85">
+        <v>0.7</v>
+      </c>
+      <c r="Q85">
+        <v>12.5</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>62.5</v>
+      </c>
+      <c r="T85">
+        <v>1</v>
+      </c>
+      <c r="V85">
+        <v>1.4</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <v>2</v>
+      </c>
+      <c r="Y85">
+        <v>0</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:32">
+      <c r="P86">
+        <v>0.7</v>
+      </c>
+      <c r="Q86">
+        <v>22.5</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>75</v>
+      </c>
+      <c r="T86">
+        <v>1</v>
+      </c>
+      <c r="V86">
+        <v>1.6</v>
+      </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="X86">
+        <v>1</v>
+      </c>
+      <c r="Y86">
+        <v>3</v>
+      </c>
+      <c r="Z86">
+        <v>3</v>
+      </c>
+      <c r="AA86">
+        <f t="shared" ref="AA86:AA88" si="1">Y86/Z86*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:32">
+      <c r="P87">
+        <v>0.7</v>
+      </c>
+      <c r="Q87">
+        <v>22.5</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>80</v>
+      </c>
+      <c r="T87">
+        <v>1</v>
+      </c>
+      <c r="V87">
+        <v>1.8</v>
+      </c>
+      <c r="W87">
+        <v>0</v>
+      </c>
+      <c r="X87">
+        <v>1</v>
+      </c>
+      <c r="Y87">
+        <v>0</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:32">
+      <c r="P88">
+        <v>0.7</v>
+      </c>
+      <c r="Q88">
+        <v>22.5</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <v>77.5</v>
+      </c>
+      <c r="T88">
+        <v>1</v>
+      </c>
+      <c r="V88">
+        <v>2</v>
+      </c>
+      <c r="W88">
+        <v>0</v>
+      </c>
+      <c r="X88">
+        <v>4</v>
+      </c>
+      <c r="Y88">
+        <v>1</v>
+      </c>
+      <c r="Z88">
+        <v>1</v>
+      </c>
+      <c r="AA88">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:32">
+      <c r="P89">
+        <v>0.7</v>
+      </c>
+      <c r="Q89">
+        <v>42.5</v>
+      </c>
+      <c r="R89">
+        <v>1</v>
+      </c>
+      <c r="AF89" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:32">
+      <c r="P90">
+        <v>0.7</v>
+      </c>
+      <c r="Q90">
+        <v>47.5</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <v>102.5</v>
+      </c>
+      <c r="T90">
+        <v>0</v>
+      </c>
+      <c r="X90" s="2"/>
+    </row>
+    <row r="91" spans="1:32">
+      <c r="P91">
+        <v>0.7</v>
+      </c>
+      <c r="Q91">
+        <v>47.5</v>
+      </c>
+      <c r="R91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:32">
+      <c r="P92">
+        <v>0.7</v>
+      </c>
+      <c r="Q92">
+        <v>47.5</v>
+      </c>
+      <c r="R92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:32">
+      <c r="P93">
+        <v>0.7</v>
+      </c>
+      <c r="Q93">
+        <v>47.5</v>
+      </c>
+      <c r="R93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:32">
+      <c r="P94">
+        <v>0.8</v>
+      </c>
+      <c r="Q94">
+        <v>17.5</v>
+      </c>
+      <c r="R94">
+        <v>0</v>
+      </c>
+      <c r="S94">
+        <v>72.5</v>
+      </c>
+      <c r="T94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:32">
+      <c r="P95">
+        <v>0.8</v>
+      </c>
+      <c r="Q95">
+        <v>17.5</v>
+      </c>
+      <c r="R95">
+        <v>0</v>
+      </c>
+      <c r="S95">
+        <v>67.5</v>
+      </c>
+      <c r="T95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:32">
+      <c r="P96">
+        <v>0.8</v>
+      </c>
+      <c r="Q96">
+        <v>17.5</v>
+      </c>
+      <c r="R96">
+        <v>0</v>
+      </c>
+      <c r="S96">
+        <v>67.5</v>
+      </c>
+      <c r="T96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="16:20">
+      <c r="P97">
+        <v>0.8</v>
+      </c>
+      <c r="Q97">
+        <v>17.5</v>
+      </c>
+      <c r="R97">
+        <v>0</v>
+      </c>
+      <c r="S97">
+        <v>72.5</v>
+      </c>
+      <c r="T97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="16:20">
+      <c r="P98">
+        <v>0.8</v>
+      </c>
+      <c r="Q98">
+        <v>17.5</v>
+      </c>
+      <c r="R98">
+        <v>0</v>
+      </c>
+      <c r="S98">
+        <v>67.5</v>
+      </c>
+      <c r="T98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="16:20">
+      <c r="P99">
+        <v>0.8</v>
+      </c>
+      <c r="Q99">
+        <v>17.5</v>
+      </c>
+      <c r="R99">
+        <v>0</v>
+      </c>
+      <c r="S99">
+        <v>67.5</v>
+      </c>
+      <c r="T99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="16:20">
+      <c r="P100">
+        <v>0.8</v>
+      </c>
+      <c r="Q100">
+        <v>22.5</v>
+      </c>
+      <c r="R100">
+        <v>0</v>
+      </c>
+      <c r="S100">
+        <v>75</v>
+      </c>
+      <c r="T100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="16:20">
+      <c r="P101">
+        <v>0.8</v>
+      </c>
+      <c r="Q101">
+        <v>22.5</v>
+      </c>
+      <c r="R101">
+        <v>0</v>
+      </c>
+      <c r="S101">
+        <v>80</v>
+      </c>
+      <c r="T101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="16:20">
+      <c r="P102">
+        <v>0.8</v>
+      </c>
+      <c r="Q102">
+        <v>37.5</v>
+      </c>
+      <c r="R102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="16:20">
+      <c r="P103">
+        <v>0.8</v>
+      </c>
+      <c r="Q103">
+        <v>42.5</v>
+      </c>
+      <c r="R103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="16:20">
+      <c r="P104">
+        <v>0.8</v>
+      </c>
+      <c r="Q104">
+        <v>47.5</v>
+      </c>
+      <c r="R104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="16:20">
+      <c r="P105">
+        <v>0.8</v>
+      </c>
+      <c r="Q105">
+        <v>47.5</v>
+      </c>
+      <c r="R105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="16:20">
+      <c r="P106">
+        <v>0.8</v>
+      </c>
+      <c r="Q106">
+        <v>50</v>
+      </c>
+      <c r="R106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="16:20">
+      <c r="P107">
+        <v>0.8</v>
+      </c>
+      <c r="Q107">
+        <v>52.5</v>
+      </c>
+      <c r="R107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="16:20">
+      <c r="P108">
+        <v>0.8</v>
+      </c>
+      <c r="Q108">
+        <v>52.5</v>
+      </c>
+      <c r="R108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="16:20">
+      <c r="P109">
+        <v>0.8</v>
+      </c>
+      <c r="Q109">
+        <v>57.5</v>
+      </c>
+      <c r="R109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="16:20">
+      <c r="P110">
+        <v>1</v>
+      </c>
+      <c r="Q110">
+        <v>17.5</v>
+      </c>
+      <c r="R110">
+        <v>0</v>
+      </c>
+      <c r="S110">
+        <v>62.5</v>
+      </c>
+      <c r="T110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="16:20">
+      <c r="P111">
+        <v>1</v>
+      </c>
+      <c r="Q111">
+        <v>17.5</v>
+      </c>
+      <c r="R111">
+        <v>0</v>
+      </c>
+      <c r="S111">
+        <v>62.5</v>
+      </c>
+      <c r="T111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="16:20">
+      <c r="P112">
+        <v>1.2</v>
+      </c>
+      <c r="Q112">
+        <v>22.5</v>
+      </c>
+      <c r="R112">
+        <v>0</v>
+      </c>
+      <c r="S112">
+        <v>72.5</v>
+      </c>
+      <c r="T112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="16:20">
+      <c r="P113">
+        <v>1.2</v>
+      </c>
+      <c r="Q113">
+        <v>22.5</v>
+      </c>
+      <c r="R113">
+        <v>0</v>
+      </c>
+      <c r="S113">
+        <v>72.5</v>
+      </c>
+      <c r="T113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="16:20">
+      <c r="P114">
+        <v>1.4</v>
+      </c>
+      <c r="Q114">
+        <v>17.5</v>
+      </c>
+      <c r="R114">
+        <v>0</v>
+      </c>
+      <c r="S114">
+        <v>70</v>
+      </c>
+      <c r="T114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="16:20">
+      <c r="P115">
+        <v>1.4</v>
+      </c>
+      <c r="Q115">
+        <v>17.5</v>
+      </c>
+      <c r="R115">
+        <v>0</v>
+      </c>
+      <c r="S115">
+        <v>70</v>
+      </c>
+      <c r="T115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="16:20">
+      <c r="P116">
+        <v>1.6</v>
+      </c>
+      <c r="Q116">
+        <v>12.5</v>
+      </c>
+      <c r="R116">
+        <v>0</v>
+      </c>
+      <c r="S116">
+        <v>67.5</v>
+      </c>
+      <c r="T116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="16:20">
+      <c r="P117">
+        <v>1.6</v>
+      </c>
+      <c r="Q117">
+        <v>40</v>
+      </c>
+      <c r="R117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="16:20">
+      <c r="P118">
+        <v>1.6</v>
+      </c>
+      <c r="Q118">
+        <v>47.5</v>
+      </c>
+      <c r="R118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="16:20">
+      <c r="P119">
+        <v>1.6</v>
+      </c>
+      <c r="Q119">
+        <v>47.5</v>
+      </c>
+      <c r="R119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="16:20">
+      <c r="P120">
+        <v>1.8</v>
+      </c>
+      <c r="Q120">
+        <v>7.5</v>
+      </c>
+      <c r="R120">
+        <v>0</v>
+      </c>
+      <c r="S120">
+        <v>62.5</v>
+      </c>
+      <c r="T120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="16:20">
+      <c r="P121">
+        <v>2</v>
+      </c>
+      <c r="Q121">
+        <v>5</v>
+      </c>
+      <c r="R121">
+        <v>0</v>
+      </c>
+      <c r="S121">
+        <v>57.5</v>
+      </c>
+      <c r="T121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="16:20">
+      <c r="P122">
+        <v>2</v>
+      </c>
+      <c r="Q122">
+        <v>17.5</v>
+      </c>
+      <c r="R122">
+        <v>0</v>
+      </c>
+      <c r="S122">
+        <v>72.5</v>
+      </c>
+      <c r="T122">
+        <f t="shared" ref="T122" si="2">R122/S122*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="16:20">
+      <c r="P123">
+        <v>2</v>
+      </c>
+      <c r="Q123">
+        <v>17.5</v>
+      </c>
+      <c r="R123">
+        <v>0</v>
+      </c>
+      <c r="S123">
+        <v>72.5</v>
+      </c>
+      <c r="T123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="16:20">
+      <c r="P124">
+        <v>2</v>
+      </c>
+      <c r="Q124">
+        <v>22.5</v>
+      </c>
+      <c r="R124">
+        <v>0</v>
+      </c>
+      <c r="S124">
+        <v>77.5</v>
+      </c>
+      <c r="T124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="16:20">
+      <c r="P125">
+        <v>2</v>
+      </c>
+      <c r="Q125">
+        <v>52.5</v>
+      </c>
+      <c r="R125">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="G2:K84">
-    <sortCondition ref="K2:K84"/>
+  <sortState ref="P60:T142">
+    <sortCondition ref="P60:P142"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5979,7 +7991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -6766,8 +8778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="W68" sqref="W68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7789,8 +9801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/Resultater/Resultater.xlsx
+++ b/Resultater/Resultater.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="28515" windowHeight="12600"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="28515" windowHeight="12600" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="d4 400_24" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="20">
   <si>
     <t>Pressure</t>
   </si>
@@ -68,6 +68,15 @@
   </si>
   <si>
     <t>Denne viser at når man kommer over et hvist trykk så bryter den like bra på 1. som 2. CZ, men den bryter ikke inni, derfor er det nyttig å ha med to nullgjennomganger.</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>one 630</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
 </sst>
 </file>
@@ -1148,11 +1157,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="88827392"/>
-        <c:axId val="88829312"/>
+        <c:axId val="76422528"/>
+        <c:axId val="76445952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88827392"/>
+        <c:axId val="76422528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -1205,13 +1214,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88829312"/>
+        <c:crossAx val="76445952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88829312"/>
+        <c:axId val="76445952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.1"/>
@@ -1253,7 +1262,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88827392"/>
+        <c:crossAx val="76422528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -1267,7 +1276,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1278,6 +1287,21 @@
   <c:lang val="nb-NO"/>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nb-NO"/>
+              <a:t>Interruption successrate</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
     </c:title>
     <c:plotArea>
@@ -1290,6 +1314,26 @@
           <c:tx>
             <c:v>Total successrate</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>'d4 400_24'!$V$60:$V$71</c:f>
@@ -1387,6 +1431,28 @@
           <c:tx>
             <c:v>1. CZ chance of interruption if outside nozzle</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:prstClr val="black"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>'d4 400_24'!$V$60:$V$71</c:f>
@@ -1472,9 +1538,23 @@
           <c:tx>
             <c:v>2. CZ chance of interruption if first CZ failed</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
               <a:ln w="9525" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
@@ -1525,28 +1605,28 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="89741184"/>
-        <c:axId val="90006272"/>
+        <c:axId val="76940416"/>
+        <c:axId val="76941952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89741184"/>
+        <c:axId val="76940416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90006272"/>
+        <c:crossAx val="76941952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90006272"/>
+        <c:axId val="76941952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1560,7 +1640,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="89741184"/>
+        <c:crossAx val="76940416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1574,7 +1654,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2054,11 +2134,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="88383488"/>
-        <c:axId val="88385792"/>
+        <c:axId val="77182080"/>
+        <c:axId val="77184384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88383488"/>
+        <c:axId val="77182080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -2127,13 +2207,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88385792"/>
+        <c:crossAx val="77184384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88385792"/>
+        <c:axId val="77184384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.1"/>
@@ -2175,7 +2255,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88383488"/>
+        <c:crossAx val="77182080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -2189,13 +2269,234 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nb-NO"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Geometriy one 400</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'d3 400_24'!$AA$13:$AA$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'d3 400_24'!$AB$13:$AB$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.666666666666657</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.777777777777786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90.909090909090907</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Geometry two</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'d3 400_24'!$AA$13:$AA$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'d3 400_24'!$AC$13:$AC$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="86181760"/>
+        <c:axId val="86183296"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="86181760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="86183296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="86183296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="86181760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="nb-NO"/>
   <c:chart>
@@ -2747,11 +3048,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="65986560"/>
-        <c:axId val="65988864"/>
+        <c:axId val="77380608"/>
+        <c:axId val="77399552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="65986560"/>
+        <c:axId val="77380608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -2820,13 +3121,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65988864"/>
+        <c:crossAx val="77399552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="65988864"/>
+        <c:axId val="77399552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.1"/>
@@ -2868,7 +3169,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65986560"/>
+        <c:crossAx val="77380608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -2882,13 +3183,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="nb-NO"/>
   <c:chart>
@@ -3452,11 +3753,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="69875968"/>
-        <c:axId val="69886720"/>
+        <c:axId val="77541760"/>
+        <c:axId val="77544064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="69875968"/>
+        <c:axId val="77541760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -3525,13 +3826,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69886720"/>
+        <c:crossAx val="77544064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69886720"/>
+        <c:axId val="77544064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.1"/>
@@ -3573,7 +3874,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69875968"/>
+        <c:crossAx val="77541760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -3588,6 +3889,213 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nb-NO"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Geometry two 630 A</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'d4 630_24'!$T$4:$T$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'d3 630_24'!$AG$21:$AG$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="2">
+                  <c:v>42.857142857142854</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Geometry one 630 A</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'d4 630_24'!$T$4:$T$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'d3 630_24'!$AH$21:$AH$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.333333333333343</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="96133888"/>
+        <c:axId val="96135424"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="96133888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="96135424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="96135424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="96133888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3690,6 +4198,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3755,6 +4293,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>324970</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>537882</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4050,8 +4618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M75" sqref="M75"/>
+    <sheetView topLeftCell="F46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V59" sqref="V59:V71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5988,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="X60">
-        <f>W60/Y60*100</f>
+        <f t="shared" ref="X60:X71" si="0">W60/Y60*100</f>
         <v>0</v>
       </c>
       <c r="Y60">
@@ -6001,7 +6569,7 @@
         <v>3</v>
       </c>
       <c r="AB60">
-        <f>Z60/AA60*100</f>
+        <f t="shared" ref="AB60:AB71" si="1">Z60/AA60*100</f>
         <v>0</v>
       </c>
       <c r="AC60">
@@ -6052,7 +6620,7 @@
         <v>0</v>
       </c>
       <c r="X61">
-        <f>W61/Y61*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y61">
@@ -6065,7 +6633,7 @@
         <v>5</v>
       </c>
       <c r="AB61">
-        <f>Z61/AA61*100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC61">
@@ -6116,7 +6684,7 @@
         <v>4</v>
       </c>
       <c r="X62">
-        <f>W62/Y62*100</f>
+        <f t="shared" si="0"/>
         <v>66.666666666666657</v>
       </c>
       <c r="Y62">
@@ -6129,7 +6697,7 @@
         <v>2</v>
       </c>
       <c r="AB62">
-        <f>Z62/AA62*100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC62">
@@ -6181,7 +6749,7 @@
         <v>4</v>
       </c>
       <c r="X63">
-        <f>W63/Y63*100</f>
+        <f t="shared" si="0"/>
         <v>44.444444444444443</v>
       </c>
       <c r="Y63">
@@ -6194,14 +6762,14 @@
         <v>5</v>
       </c>
       <c r="AB63">
-        <f>Z63/AA63*100</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="AC63">
         <v>9</v>
       </c>
       <c r="AD63">
-        <f>(W63+Z63)/AC63*100</f>
+        <f t="shared" ref="AD63:AD71" si="2">(W63+Z63)/AC63*100</f>
         <v>77.777777777777786</v>
       </c>
     </row>
@@ -6246,7 +6814,7 @@
         <v>4</v>
       </c>
       <c r="X64">
-        <f>W64/Y64*100</f>
+        <f t="shared" si="0"/>
         <v>36.363636363636367</v>
       </c>
       <c r="Y64">
@@ -6259,14 +6827,14 @@
         <v>7</v>
       </c>
       <c r="AB64">
-        <f>Z64/AA64*100</f>
+        <f t="shared" si="1"/>
         <v>85.714285714285708</v>
       </c>
       <c r="AC64">
         <v>11</v>
       </c>
       <c r="AD64">
-        <f>(W64+Z64)/AC64*100</f>
+        <f t="shared" si="2"/>
         <v>90.909090909090907</v>
       </c>
     </row>
@@ -6311,7 +6879,7 @@
         <v>8</v>
       </c>
       <c r="X65">
-        <f>W65/Y65*100</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="Y65">
@@ -6324,14 +6892,14 @@
         <v>8</v>
       </c>
       <c r="AB65">
-        <f>Z65/AA65*100</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="AC65">
         <v>16</v>
       </c>
       <c r="AD65">
-        <f>(W65+Z65)/AC65*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
@@ -6376,7 +6944,7 @@
         <v>0</v>
       </c>
       <c r="X66">
-        <f>W66/Y66*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y66">
@@ -6389,14 +6957,14 @@
         <v>2</v>
       </c>
       <c r="AB66">
-        <f>Z66/AA66*100</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="AC66">
         <v>2</v>
       </c>
       <c r="AD66">
-        <f>(W66+Z66)/AC66*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
@@ -6441,7 +7009,7 @@
         <v>0</v>
       </c>
       <c r="X67">
-        <f>W67/Y67*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y67">
@@ -6454,14 +7022,14 @@
         <v>2</v>
       </c>
       <c r="AB67">
-        <f>Z67/AA67*100</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="AC67">
         <v>2</v>
       </c>
       <c r="AD67">
-        <f>(W67+Z67)/AC67*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
@@ -6500,7 +7068,7 @@
         <v>0</v>
       </c>
       <c r="X68">
-        <f>W68/Y68*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y68">
@@ -6513,14 +7081,14 @@
         <v>2</v>
       </c>
       <c r="AB68">
-        <f>Z68/AA68*100</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="AC68">
         <v>2</v>
       </c>
       <c r="AD68">
-        <f>(W68+Z68)/AC68*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
@@ -6559,7 +7127,7 @@
         <v>3</v>
       </c>
       <c r="X69">
-        <f>W69/Y69*100</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="Y69">
@@ -6572,14 +7140,14 @@
         <v>1</v>
       </c>
       <c r="AB69">
-        <f>Z69/AA69*100</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="AC69">
         <v>4</v>
       </c>
       <c r="AD69">
-        <f>(W69+Z69)/AC69*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
@@ -6618,7 +7186,7 @@
         <v>0</v>
       </c>
       <c r="X70">
-        <f>W70/Y70*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y70">
@@ -6631,14 +7199,14 @@
         <v>1</v>
       </c>
       <c r="AB70">
-        <f>Z70/AA70*100</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="AC70">
         <v>1</v>
       </c>
       <c r="AD70">
-        <f>(W70+Z70)/AC70*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
@@ -6683,7 +7251,7 @@
         <v>1</v>
       </c>
       <c r="X71">
-        <f>W71/Y71*100</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="Y71">
@@ -6696,14 +7264,14 @@
         <v>4</v>
       </c>
       <c r="AB71">
-        <f>Z71/AA71*100</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="AC71">
         <v>5</v>
       </c>
       <c r="AD71">
-        <f>(W71+Z71)/AC71*100</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
     </row>
@@ -7001,7 +7569,7 @@
         <v>4</v>
       </c>
       <c r="AA78">
-        <f t="shared" ref="AA78:AA83" si="0">Y78/Z78*100</f>
+        <f t="shared" ref="AA78:AA82" si="3">Y78/Z78*100</f>
         <v>0</v>
       </c>
     </row>
@@ -7049,7 +7617,7 @@
         <v>6</v>
       </c>
       <c r="AA79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>66.666666666666657</v>
       </c>
     </row>
@@ -7097,7 +7665,7 @@
         <v>5</v>
       </c>
       <c r="AA80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
     </row>
@@ -7151,7 +7719,7 @@
         <v>5</v>
       </c>
       <c r="AA81">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
     </row>
@@ -7199,7 +7767,7 @@
         <v>8</v>
       </c>
       <c r="AA82">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
@@ -7367,7 +7935,7 @@
         <v>3</v>
       </c>
       <c r="AA86">
-        <f t="shared" ref="AA86:AA88" si="1">Y86/Z86*100</f>
+        <f t="shared" ref="AA86:AA88" si="4">Y86/Z86*100</f>
         <v>100</v>
       </c>
     </row>
@@ -7435,7 +8003,7 @@
         <v>1</v>
       </c>
       <c r="AA88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -7928,7 +8496,7 @@
         <v>72.5</v>
       </c>
       <c r="T122">
-        <f t="shared" ref="T122" si="2">R122/S122*100</f>
+        <f t="shared" ref="T122" si="5">R122/S122*100</f>
         <v>0</v>
       </c>
     </row>
@@ -7989,15 +8557,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:AD27"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8028,8 +8596,26 @@
       <c r="K1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="O1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2">
         <v>0.6</v>
       </c>
@@ -8060,8 +8646,29 @@
       <c r="K2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="O2">
+        <v>0.6</v>
+      </c>
+      <c r="P2">
+        <v>7.5</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>57.5</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3">
         <v>0.6</v>
       </c>
@@ -8092,8 +8699,50 @@
       <c r="K3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="O3">
+        <v>0.6</v>
+      </c>
+      <c r="P3">
+        <v>7.5</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>62.5</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="V3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>9</v>
+      </c>
+      <c r="X3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4">
         <v>0.6</v>
       </c>
@@ -8124,8 +8773,53 @@
       <c r="K4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="O4">
+        <v>0.6</v>
+      </c>
+      <c r="P4">
+        <v>12.5</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>62.5</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0.6</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <f>W4/Y4*100</f>
+        <v>10</v>
+      </c>
+      <c r="Y4">
+        <v>10</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>9</v>
+      </c>
+      <c r="AB4">
+        <f>Z4/AA4*100</f>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="AC4">
+        <v>10</v>
+      </c>
+      <c r="AD4">
+        <f>(W4+Z4)/AC4*100</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5">
         <v>0.6</v>
       </c>
@@ -8156,8 +8850,53 @@
       <c r="K5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="O5">
+        <v>0.6</v>
+      </c>
+      <c r="P5">
+        <v>17.5</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>72.5</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0.7</v>
+      </c>
+      <c r="W5">
+        <v>7</v>
+      </c>
+      <c r="X5">
+        <f>W5/Y5*100</f>
+        <v>87.5</v>
+      </c>
+      <c r="Y5">
+        <v>8</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <f>Z5/AA5*100</f>
+        <v>100</v>
+      </c>
+      <c r="AC5">
+        <v>8</v>
+      </c>
+      <c r="AD5">
+        <f>(W5+Z5)/AC5*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6">
         <v>0.6</v>
       </c>
@@ -8188,8 +8927,53 @@
       <c r="K6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="O6">
+        <v>0.6</v>
+      </c>
+      <c r="P6">
+        <v>22.5</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>72.5</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>2</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <f>W6/Y6*100</f>
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>2</v>
+      </c>
+      <c r="Z6">
+        <v>2</v>
+      </c>
+      <c r="AA6">
+        <v>2</v>
+      </c>
+      <c r="AB6">
+        <f>Z6/AA6*100</f>
+        <v>100</v>
+      </c>
+      <c r="AC6">
+        <v>2</v>
+      </c>
+      <c r="AD6">
+        <f>(W6+Z6)/AC6*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -8220,8 +9004,23 @@
       <c r="K7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="O7">
+        <v>0.6</v>
+      </c>
+      <c r="P7">
+        <v>37.5</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>90</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8">
         <v>0.6</v>
       </c>
@@ -8252,8 +9051,23 @@
       <c r="K8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="O8">
+        <v>0.6</v>
+      </c>
+      <c r="P8">
+        <v>37.5</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>90</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9">
         <v>0.6</v>
       </c>
@@ -8284,8 +9098,23 @@
       <c r="K9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="O9">
+        <v>0.6</v>
+      </c>
+      <c r="P9">
+        <v>45</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>105</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10">
         <v>0.6</v>
       </c>
@@ -8316,8 +9145,17 @@
       <c r="K10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="O10">
+        <v>0.6</v>
+      </c>
+      <c r="P10">
+        <v>52.5</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11">
         <v>0.6</v>
       </c>
@@ -8348,8 +9186,23 @@
       <c r="K11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="O11">
+        <v>0.6</v>
+      </c>
+      <c r="P11">
+        <v>55</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>110</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12">
         <v>0.6</v>
       </c>
@@ -8380,8 +9233,29 @@
       <c r="K12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="O12">
+        <v>0.7</v>
+      </c>
+      <c r="P12">
+        <v>42.5</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>97.5</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13">
         <v>0.6</v>
       </c>
@@ -8412,8 +9286,23 @@
       <c r="K13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="O13">
+        <v>0.7</v>
+      </c>
+      <c r="P13">
+        <v>42.5</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="AA13">
+        <v>0.3</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14">
         <v>0.7</v>
       </c>
@@ -8444,8 +9333,23 @@
       <c r="K14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="O14">
+        <v>0.7</v>
+      </c>
+      <c r="P14">
+        <v>50</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>0.4</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15">
         <v>2</v>
       </c>
@@ -8476,8 +9380,23 @@
       <c r="K15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="O15">
+        <v>0.7</v>
+      </c>
+      <c r="P15">
+        <v>50</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <v>0.5</v>
+      </c>
+      <c r="AB15">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16">
         <v>2</v>
       </c>
@@ -8508,8 +9427,26 @@
       <c r="K16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="O16">
+        <v>0.7</v>
+      </c>
+      <c r="P16">
+        <v>52.5</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="AA16">
+        <v>0.6</v>
+      </c>
+      <c r="AB16">
+        <v>77.777777777777786</v>
+      </c>
+      <c r="AC16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
       <c r="A17">
         <v>2</v>
       </c>
@@ -8540,8 +9477,26 @@
       <c r="K17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="O17">
+        <v>0.7</v>
+      </c>
+      <c r="P17">
+        <v>52.5</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="AA17">
+        <v>0.7</v>
+      </c>
+      <c r="AB17">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="AC17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
       <c r="A18">
         <v>2</v>
       </c>
@@ -8572,8 +9527,26 @@
       <c r="K18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="O18">
+        <v>0.7</v>
+      </c>
+      <c r="P18">
+        <v>52.5</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>0.8</v>
+      </c>
+      <c r="AB18">
+        <v>100</v>
+      </c>
+      <c r="AC18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
       <c r="A19">
         <v>2</v>
       </c>
@@ -8604,8 +9577,23 @@
       <c r="K19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="O19">
+        <v>0.7</v>
+      </c>
+      <c r="P19">
+        <v>52.5</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
       <c r="A20">
         <v>0.7</v>
       </c>
@@ -8624,8 +9612,29 @@
       <c r="I20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="O20">
+        <v>2</v>
+      </c>
+      <c r="P20">
+        <v>17.5</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>77.5</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <v>1.2</v>
+      </c>
+      <c r="AB20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
       <c r="A21">
         <v>0.7</v>
       </c>
@@ -8644,8 +9653,29 @@
       <c r="I21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="O21">
+        <v>2</v>
+      </c>
+      <c r="P21">
+        <v>22.5</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>82.5</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="AA21">
+        <v>1.4</v>
+      </c>
+      <c r="AB21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
       <c r="A22">
         <v>0.7</v>
       </c>
@@ -8664,8 +9694,14 @@
       <c r="I22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="AA22">
+        <v>1.6</v>
+      </c>
+      <c r="AB22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29">
       <c r="A23">
         <v>0.7</v>
       </c>
@@ -8684,8 +9720,14 @@
       <c r="I23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="AA23">
+        <v>1.8</v>
+      </c>
+      <c r="AB23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29">
       <c r="A24">
         <v>0.7</v>
       </c>
@@ -8704,8 +9746,14 @@
       <c r="I24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="AA24">
+        <v>2</v>
+      </c>
+      <c r="AB24">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29">
       <c r="A25">
         <v>0.6</v>
       </c>
@@ -8725,7 +9773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:29">
       <c r="A26">
         <v>0.7</v>
       </c>
@@ -8745,7 +9793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:29">
       <c r="A27">
         <v>0.7</v>
       </c>
@@ -8766,8 +9814,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="G2:K27">
-    <sortCondition ref="K2:K27"/>
+  <sortState ref="O2:S27">
+    <sortCondition ref="O2:O27"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8776,15 +9824,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:AB37"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="W68" sqref="W68"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8815,8 +9863,26 @@
       <c r="K1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="O1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2">
         <v>0.8</v>
       </c>
@@ -8847,8 +9913,29 @@
       <c r="K2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="O2">
+        <v>0.6</v>
+      </c>
+      <c r="P2">
+        <v>6</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>63</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="U2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3">
         <v>0.8</v>
       </c>
@@ -8879,8 +9966,50 @@
       <c r="K3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="O3">
+        <v>0.8</v>
+      </c>
+      <c r="P3">
+        <v>12</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>63</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" t="s">
+        <v>9</v>
+      </c>
+      <c r="V3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4">
         <v>0.8</v>
       </c>
@@ -8911,8 +10040,53 @@
       <c r="K4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="O4">
+        <v>0.8</v>
+      </c>
+      <c r="P4">
+        <v>35</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>82</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0.6</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <f>U4/W4*100</f>
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <f>X4/Y4*100</f>
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <f>(U4+X4)/AA4*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5">
         <v>0.8</v>
       </c>
@@ -8943,8 +10117,47 @@
       <c r="K5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="O5">
+        <v>0.8</v>
+      </c>
+      <c r="P5">
+        <v>35</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>0.8</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <f>U5/W5*100</f>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="W5">
+        <v>6</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>5</v>
+      </c>
+      <c r="Z5">
+        <f>X5/Y5*100</f>
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>6</v>
+      </c>
+      <c r="AB5">
+        <f>(U5+X5)/AA5*100</f>
+        <v>16.666666666666664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6">
         <v>0.8</v>
       </c>
@@ -8975,8 +10188,53 @@
       <c r="K6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="O6">
+        <v>0.8</v>
+      </c>
+      <c r="P6">
+        <v>40</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>88</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0.9</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <f>U6/W6*100</f>
+        <v>20</v>
+      </c>
+      <c r="W6">
+        <v>5</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>4</v>
+      </c>
+      <c r="Z6">
+        <f>X6/Y6*100</f>
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>5</v>
+      </c>
+      <c r="AB6">
+        <f>(U6+X6)/AA6*100</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7">
         <v>0.9</v>
       </c>
@@ -9007,8 +10265,53 @@
       <c r="K7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="O7">
+        <v>0.8</v>
+      </c>
+      <c r="P7">
+        <v>46</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>94</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <f>U7/W7*100</f>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="W7">
+        <v>6</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>5</v>
+      </c>
+      <c r="Z7">
+        <f>X7/Y7*100</f>
+        <v>20</v>
+      </c>
+      <c r="AA7">
+        <v>5</v>
+      </c>
+      <c r="AB7">
+        <f>(U7+X7)/AA7*100</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8">
         <v>0.9</v>
       </c>
@@ -9039,8 +10342,53 @@
       <c r="K8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="O8">
+        <v>0.8</v>
+      </c>
+      <c r="P8">
+        <v>55</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>102</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U8">
+        <v>5</v>
+      </c>
+      <c r="V8">
+        <f>U8/W8*100</f>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="W8">
+        <v>6</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <f>X8/Y8*100</f>
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>6</v>
+      </c>
+      <c r="AB8">
+        <f>(U8+X8)/AA8*100</f>
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9">
         <v>0.9</v>
       </c>
@@ -9071,8 +10419,53 @@
       <c r="K9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="O9">
+        <v>0.9</v>
+      </c>
+      <c r="P9">
+        <v>45</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>95</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>1.2</v>
+      </c>
+      <c r="U9">
+        <v>5</v>
+      </c>
+      <c r="V9">
+        <f>U9/W9*100</f>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="W9">
+        <v>6</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <f>X9/Y9*100</f>
+        <v>100</v>
+      </c>
+      <c r="AA9">
+        <v>6</v>
+      </c>
+      <c r="AB9">
+        <f>(U9+X9)/AA9*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -9103,8 +10496,53 @@
       <c r="K10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="O10">
+        <v>0.9</v>
+      </c>
+      <c r="P10">
+        <v>49</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>98</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>1.4</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <f>U10/W10*100</f>
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <f>X10/Y10*100</f>
+        <v>100</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <f>(U10+X10)/AA10*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11">
         <v>0.9</v>
       </c>
@@ -9135,8 +10573,53 @@
       <c r="K11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="O11">
+        <v>0.9</v>
+      </c>
+      <c r="P11">
+        <v>50</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>98</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>1.8</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <f>U11/W11*100</f>
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <f>X11/Y11*100</f>
+        <v>100</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <f>(U11+X11)/AA11*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12">
         <v>1</v>
       </c>
@@ -9167,8 +10650,47 @@
       <c r="K12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="O12">
+        <v>0.9</v>
+      </c>
+      <c r="P12">
+        <v>50</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>2</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <f>U12/W12*100</f>
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <f>X12/Y12*100</f>
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <f>(U12+X12)/AA12*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13">
         <v>1</v>
       </c>
@@ -9199,8 +10721,23 @@
       <c r="K13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="O13">
+        <v>0.9</v>
+      </c>
+      <c r="P13">
+        <v>54</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>100</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14">
         <v>1</v>
       </c>
@@ -9231,8 +10768,23 @@
       <c r="K14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>11</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>67</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15">
         <v>1</v>
       </c>
@@ -9263,8 +10815,17 @@
       <c r="K15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>42</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16">
         <v>1.1000000000000001</v>
       </c>
@@ -9295,8 +10856,23 @@
       <c r="K16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>43</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>91</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17">
         <v>1.2</v>
       </c>
@@ -9327,8 +10903,23 @@
       <c r="K17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>44</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>92</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18">
         <v>1</v>
       </c>
@@ -9359,8 +10950,23 @@
       <c r="K18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>47</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>96</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19">
         <v>0.6</v>
       </c>
@@ -9391,8 +10997,23 @@
       <c r="K19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>51</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>97</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20">
         <v>1.4</v>
       </c>
@@ -9423,8 +11044,17 @@
       <c r="K20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="O20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P20">
+        <v>45</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21">
         <v>1.8</v>
       </c>
@@ -9455,8 +11085,23 @@
       <c r="K21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="O21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P21">
+        <v>48</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>97</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22">
         <v>2</v>
       </c>
@@ -9487,8 +11132,17 @@
       <c r="K22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="O22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P22">
+        <v>48</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23">
         <v>0.8</v>
       </c>
@@ -9507,8 +11161,17 @@
       <c r="I23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="O23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P23">
+        <v>53</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24">
         <v>0.9</v>
       </c>
@@ -9527,8 +11190,17 @@
       <c r="I24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="O24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P24">
+        <v>54</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25">
         <v>0.9</v>
       </c>
@@ -9547,8 +11219,17 @@
       <c r="I25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="O25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P25">
+        <v>56</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26">
         <v>1</v>
       </c>
@@ -9567,8 +11248,23 @@
       <c r="I26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="O26">
+        <v>1.2</v>
+      </c>
+      <c r="P26">
+        <v>13</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>68</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27">
         <v>1.1000000000000001</v>
       </c>
@@ -9587,8 +11283,17 @@
       <c r="I27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="O27">
+        <v>1.2</v>
+      </c>
+      <c r="P27">
+        <v>44</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28">
         <v>1.1000000000000001</v>
       </c>
@@ -9607,8 +11312,17 @@
       <c r="I28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="O28">
+        <v>1.2</v>
+      </c>
+      <c r="P28">
+        <v>44</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29">
         <v>1.1000000000000001</v>
       </c>
@@ -9627,8 +11341,17 @@
       <c r="I29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="O29">
+        <v>1.2</v>
+      </c>
+      <c r="P29">
+        <v>48</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30">
         <v>1.1000000000000001</v>
       </c>
@@ -9647,8 +11370,17 @@
       <c r="I30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="O30">
+        <v>1.2</v>
+      </c>
+      <c r="P30">
+        <v>51</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31">
         <v>1.1000000000000001</v>
       </c>
@@ -9667,8 +11399,17 @@
       <c r="I31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="O31">
+        <v>1.2</v>
+      </c>
+      <c r="P31">
+        <v>52</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32">
         <v>1.1000000000000001</v>
       </c>
@@ -9687,8 +11428,23 @@
       <c r="I32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="O32">
+        <v>1.4</v>
+      </c>
+      <c r="P32">
+        <v>20</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>73</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33">
         <v>1.2</v>
       </c>
@@ -9707,8 +11463,23 @@
       <c r="I33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="O33">
+        <v>1.8</v>
+      </c>
+      <c r="P33">
+        <v>13</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>68</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34">
         <v>1.2</v>
       </c>
@@ -9727,8 +11498,23 @@
       <c r="I34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="O34">
+        <v>2</v>
+      </c>
+      <c r="P34">
+        <v>16</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>70</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35">
         <v>1.2</v>
       </c>
@@ -9748,7 +11534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:19">
       <c r="A36">
         <v>1.2</v>
       </c>
@@ -9768,7 +11554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:19">
       <c r="A37">
         <v>1.2</v>
       </c>
@@ -9789,8 +11575,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="G2:K37">
-    <sortCondition ref="K2:K37"/>
+  <sortState ref="O2:S37">
+    <sortCondition ref="O2:O37"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9799,15 +11585,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:AN42"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AG40" sqref="AG40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:40">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9838,8 +11624,29 @@
       <c r="K1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="O1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40">
       <c r="A2">
         <v>0.9</v>
       </c>
@@ -9870,8 +11677,35 @@
       <c r="K2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="O2">
+        <v>0.9</v>
+      </c>
+      <c r="P2">
+        <v>37</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>89</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40">
       <c r="A3">
         <v>0.9</v>
       </c>
@@ -9902,8 +11736,77 @@
       <c r="K3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="O3">
+        <v>0.9</v>
+      </c>
+      <c r="P3">
+        <v>45</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>97</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="V3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>9</v>
+      </c>
+      <c r="X3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40">
       <c r="A4">
         <v>0.9</v>
       </c>
@@ -9934,8 +11837,83 @@
       <c r="K4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="O4">
+        <v>0.9</v>
+      </c>
+      <c r="P4">
+        <v>46</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>95</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>0.9</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <f>W4/Y4*100</f>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="Y4">
+        <v>7</v>
+      </c>
+      <c r="Z4">
+        <v>2</v>
+      </c>
+      <c r="AA4">
+        <v>6</v>
+      </c>
+      <c r="AB4">
+        <f>Z4/AA4*100</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="AC4">
+        <v>7</v>
+      </c>
+      <c r="AD4">
+        <f>(W4+Z4)/AC4*100</f>
+        <v>42.857142857142854</v>
+      </c>
+      <c r="AF4">
+        <v>0.6</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <f>AG4/AI4*100</f>
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <f>AJ4/AK4*100</f>
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <f>(AG4+AJ4)/AM4*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40">
       <c r="A5">
         <v>0.9</v>
       </c>
@@ -9966,8 +11944,83 @@
       <c r="K5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="O5">
+        <v>0.9</v>
+      </c>
+      <c r="P5">
+        <v>48</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>97</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>6</v>
+      </c>
+      <c r="X5">
+        <f>W5/Y5*100</f>
+        <v>60</v>
+      </c>
+      <c r="Y5">
+        <v>10</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>4</v>
+      </c>
+      <c r="AB5">
+        <f>Z5/AA5*100</f>
+        <v>25</v>
+      </c>
+      <c r="AC5">
+        <v>10</v>
+      </c>
+      <c r="AD5">
+        <f>(W5+Z5)/AC5*100</f>
+        <v>70</v>
+      </c>
+      <c r="AF5">
+        <v>0.8</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <f>AG5/AI5*100</f>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="AI5">
+        <v>6</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>5</v>
+      </c>
+      <c r="AL5">
+        <f>AJ5/AK5*100</f>
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>6</v>
+      </c>
+      <c r="AN5">
+        <f>(AG5+AJ5)/AM5*100</f>
+        <v>16.666666666666664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40">
       <c r="A6">
         <v>0.9</v>
       </c>
@@ -9998,8 +12051,77 @@
       <c r="K6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="O6">
+        <v>0.9</v>
+      </c>
+      <c r="P6">
+        <v>53</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W6">
+        <v>2</v>
+      </c>
+      <c r="X6">
+        <f>W6/Y6*100</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="Y6">
+        <v>6</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>4</v>
+      </c>
+      <c r="AB6">
+        <f>Z6/AA6*100</f>
+        <v>25</v>
+      </c>
+      <c r="AC6">
+        <v>6</v>
+      </c>
+      <c r="AD6">
+        <f>(W6+Z6)/AC6*100</f>
+        <v>50</v>
+      </c>
+      <c r="AF6">
+        <v>0.9</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <f>AG6/AI6*100</f>
+        <v>20</v>
+      </c>
+      <c r="AI6">
+        <v>5</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>4</v>
+      </c>
+      <c r="AL6">
+        <f>AJ6/AK6*100</f>
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>5</v>
+      </c>
+      <c r="AN6">
+        <f>(AG6+AJ6)/AM6*100</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40">
       <c r="A7">
         <v>0.9</v>
       </c>
@@ -10030,8 +12152,83 @@
       <c r="K7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="O7">
+        <v>0.9</v>
+      </c>
+      <c r="P7">
+        <v>56</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>105</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>1.2</v>
+      </c>
+      <c r="W7">
+        <v>4</v>
+      </c>
+      <c r="X7">
+        <f>W7/Y7*100</f>
+        <v>80</v>
+      </c>
+      <c r="Y7">
+        <v>5</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <f>Z7/AA7*100</f>
+        <v>100</v>
+      </c>
+      <c r="AC7">
+        <v>5</v>
+      </c>
+      <c r="AD7">
+        <f>(W7+Z7)/AC7*100</f>
+        <v>100</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <f>AG7/AI7*100</f>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="AI7">
+        <v>6</v>
+      </c>
+      <c r="AJ7">
+        <v>1</v>
+      </c>
+      <c r="AK7">
+        <v>5</v>
+      </c>
+      <c r="AL7">
+        <f>AJ7/AK7*100</f>
+        <v>20</v>
+      </c>
+      <c r="AM7">
+        <v>5</v>
+      </c>
+      <c r="AN7">
+        <f>(AG7+AJ7)/AM7*100</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40">
       <c r="A8">
         <v>1</v>
       </c>
@@ -10062,8 +12259,83 @@
       <c r="K8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="O8">
+        <v>0.9</v>
+      </c>
+      <c r="P8">
+        <v>56</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>105</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1.3</v>
+      </c>
+      <c r="W8">
+        <v>4</v>
+      </c>
+      <c r="X8">
+        <f>W8/Y8*100</f>
+        <v>80</v>
+      </c>
+      <c r="Y8">
+        <v>5</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <f>Z8/AA8*100</f>
+        <v>100</v>
+      </c>
+      <c r="AC8">
+        <v>5</v>
+      </c>
+      <c r="AD8">
+        <f>(W8+Z8)/AC8*100</f>
+        <v>100</v>
+      </c>
+      <c r="AF8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AG8">
+        <v>5</v>
+      </c>
+      <c r="AH8">
+        <f>AG8/AI8*100</f>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="AI8">
+        <v>6</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <f>AJ8/AK8*100</f>
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>6</v>
+      </c>
+      <c r="AN8">
+        <f>(AG8+AJ8)/AM8*100</f>
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40">
       <c r="A9">
         <v>1</v>
       </c>
@@ -10094,8 +12366,67 @@
       <c r="K9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>36</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>1.4</v>
+      </c>
+      <c r="W9">
+        <v>5</v>
+      </c>
+      <c r="X9">
+        <f>W9/Y9*100</f>
+        <v>100</v>
+      </c>
+      <c r="Y9">
+        <v>5</v>
+      </c>
+      <c r="AC9">
+        <v>5</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" ref="AD9:AD10" si="0">(W9+Z9)/AC9*100</f>
+        <v>100</v>
+      </c>
+      <c r="AF9">
+        <v>1.2</v>
+      </c>
+      <c r="AG9">
+        <v>5</v>
+      </c>
+      <c r="AH9">
+        <f>AG9/AI9*100</f>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="AI9">
+        <v>6</v>
+      </c>
+      <c r="AJ9">
+        <v>1</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <f>AJ9/AK9*100</f>
+        <v>100</v>
+      </c>
+      <c r="AM9">
+        <v>6</v>
+      </c>
+      <c r="AN9">
+        <f>(AG9+AJ9)/AM9*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40">
       <c r="A10">
         <v>1</v>
       </c>
@@ -10126,8 +12457,83 @@
       <c r="K10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>37</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>85</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>2</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <f>W10/Y10*100</f>
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" ref="AB9:AB10" si="1">Z10/AA10*100</f>
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>1.4</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <f>AG10/AI10*100</f>
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>1</v>
+      </c>
+      <c r="AJ10">
+        <v>1</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <f>AJ10/AK10*100</f>
+        <v>100</v>
+      </c>
+      <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AN10">
+        <f>(AG10+AJ10)/AM10*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40">
       <c r="A11">
         <v>1</v>
       </c>
@@ -10158,8 +12564,47 @@
       <c r="K11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>41</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="AF11">
+        <v>1.8</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <f>AG11/AI11*100</f>
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>1</v>
+      </c>
+      <c r="AJ11">
+        <v>1</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <f>AJ11/AK11*100</f>
+        <v>100</v>
+      </c>
+      <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AN11">
+        <f>(AG11+AJ11)/AM11*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -10190,8 +12635,53 @@
       <c r="K12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>42</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>90</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="AF12">
+        <v>2</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <f>AG12/AI12*100</f>
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>1</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <f>AJ12/AK12*100</f>
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>1</v>
+      </c>
+      <c r="AN12">
+        <f>(AG12+AJ12)/AM12*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40">
       <c r="A13">
         <v>1.1000000000000001</v>
       </c>
@@ -10222,8 +12712,23 @@
       <c r="K13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>44</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>92</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40">
       <c r="A14">
         <v>1.1000000000000001</v>
       </c>
@@ -10254,8 +12759,17 @@
       <c r="K14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>44</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40">
       <c r="A15">
         <v>1.1000000000000001</v>
       </c>
@@ -10286,8 +12800,23 @@
       <c r="K15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>46</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>94</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40">
       <c r="A16">
         <v>1.2</v>
       </c>
@@ -10318,8 +12847,17 @@
       <c r="K16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>46</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34">
       <c r="A17">
         <v>1.3</v>
       </c>
@@ -10350,8 +12888,17 @@
       <c r="K17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>49</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34">
       <c r="A18">
         <v>2</v>
       </c>
@@ -10382,8 +12929,17 @@
       <c r="K18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>50</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34">
       <c r="A19">
         <v>2</v>
       </c>
@@ -10414,8 +12970,23 @@
       <c r="K19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="O19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P19">
+        <v>40</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>91</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34">
       <c r="A20">
         <v>1</v>
       </c>
@@ -10434,8 +13005,26 @@
       <c r="I20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="O20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P20">
+        <v>40</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34">
       <c r="A21">
         <v>1</v>
       </c>
@@ -10454,8 +13043,29 @@
       <c r="I21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="O21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P21">
+        <v>42</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>94</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0.6</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34">
       <c r="A22">
         <v>1</v>
       </c>
@@ -10474,8 +13084,29 @@
       <c r="I22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="O22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P22">
+        <v>42</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>94</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="AF22">
+        <v>0.8</v>
+      </c>
+      <c r="AH22">
+        <v>16.666666666666664</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34">
       <c r="A23">
         <v>1</v>
       </c>
@@ -10494,8 +13125,32 @@
       <c r="I23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="O23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P23">
+        <v>45</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>97</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0.9</v>
+      </c>
+      <c r="AG23">
+        <v>42.857142857142854</v>
+      </c>
+      <c r="AH23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34">
       <c r="A24">
         <v>1</v>
       </c>
@@ -10514,8 +13169,26 @@
       <c r="I24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="O24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P24">
+        <v>56</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="AF24">
+        <v>1</v>
+      </c>
+      <c r="AG24">
+        <v>70</v>
+      </c>
+      <c r="AH24">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34">
       <c r="A25">
         <v>0.9</v>
       </c>
@@ -10534,8 +13207,26 @@
       <c r="I25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="O25">
+        <v>1.2</v>
+      </c>
+      <c r="P25">
+        <v>35</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="AF25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AG25">
+        <v>50</v>
+      </c>
+      <c r="AH25">
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34">
       <c r="A26">
         <v>1</v>
       </c>
@@ -10554,8 +13245,26 @@
       <c r="I26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="O26">
+        <v>1.2</v>
+      </c>
+      <c r="P26">
+        <v>41</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="AF26">
+        <v>1.2</v>
+      </c>
+      <c r="AG26">
+        <v>100</v>
+      </c>
+      <c r="AH26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34">
       <c r="A27">
         <v>1.1000000000000001</v>
       </c>
@@ -10574,8 +13283,26 @@
       <c r="I27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="O27">
+        <v>1.2</v>
+      </c>
+      <c r="P27">
+        <v>42</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="AF27">
+        <v>1.4</v>
+      </c>
+      <c r="AG27">
+        <v>100</v>
+      </c>
+      <c r="AH27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34">
       <c r="A28">
         <v>1.1000000000000001</v>
       </c>
@@ -10594,8 +13321,26 @@
       <c r="I28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="O28">
+        <v>1.2</v>
+      </c>
+      <c r="P28">
+        <v>43</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="AF28">
+        <v>1.8</v>
+      </c>
+      <c r="AG28">
+        <v>100</v>
+      </c>
+      <c r="AH28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34">
       <c r="A29">
         <v>1.2</v>
       </c>
@@ -10614,8 +13359,32 @@
       <c r="I29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="O29">
+        <v>1.2</v>
+      </c>
+      <c r="P29">
+        <v>44</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>93</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="AF29">
+        <v>2</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34">
       <c r="A30">
         <v>1.2</v>
       </c>
@@ -10634,8 +13403,17 @@
       <c r="I30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="O30">
+        <v>1.3</v>
+      </c>
+      <c r="P30">
+        <v>40</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34">
       <c r="A31">
         <v>1.2</v>
       </c>
@@ -10654,8 +13432,17 @@
       <c r="I31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="O31">
+        <v>1.3</v>
+      </c>
+      <c r="P31">
+        <v>41</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34">
       <c r="A32">
         <v>1.2</v>
       </c>
@@ -10674,8 +13461,23 @@
       <c r="I32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="O32">
+        <v>1.3</v>
+      </c>
+      <c r="P32">
+        <v>43</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>92</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33">
         <v>1.2</v>
       </c>
@@ -10694,8 +13496,17 @@
       <c r="I33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="O33">
+        <v>1.3</v>
+      </c>
+      <c r="P33">
+        <v>43</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34">
         <v>1.3</v>
       </c>
@@ -10714,8 +13525,17 @@
       <c r="I34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="O34">
+        <v>1.3</v>
+      </c>
+      <c r="P34">
+        <v>45</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35">
         <v>1.3</v>
       </c>
@@ -10734,8 +13554,17 @@
       <c r="I35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="O35">
+        <v>1.4</v>
+      </c>
+      <c r="P35">
+        <v>40</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36">
         <v>1.3</v>
       </c>
@@ -10754,8 +13583,17 @@
       <c r="I36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="O36">
+        <v>1.4</v>
+      </c>
+      <c r="P36">
+        <v>40</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37">
         <v>1.3</v>
       </c>
@@ -10774,8 +13612,17 @@
       <c r="I37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="O37">
+        <v>1.4</v>
+      </c>
+      <c r="P37">
+        <v>41</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38">
         <v>1.4</v>
       </c>
@@ -10794,8 +13641,17 @@
       <c r="I38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="O38">
+        <v>1.4</v>
+      </c>
+      <c r="P38">
+        <v>42</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39">
         <v>1.4</v>
       </c>
@@ -10814,8 +13670,17 @@
       <c r="I39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="O39">
+        <v>1.4</v>
+      </c>
+      <c r="P39">
+        <v>45</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40">
         <v>1.4</v>
       </c>
@@ -10834,8 +13699,23 @@
       <c r="I40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="O40">
+        <v>2</v>
+      </c>
+      <c r="P40">
+        <v>11</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>60</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41">
         <v>1.4</v>
       </c>
@@ -10855,7 +13735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:19">
       <c r="A42">
         <v>1.4</v>
       </c>
@@ -10876,8 +13756,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="G2:K42">
-    <sortCondition ref="K2:K42"/>
+  <sortState ref="O2:S42">
+    <sortCondition ref="O2:O42"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Resultater/Resultater.xlsx
+++ b/Resultater/Resultater.xlsx
@@ -201,7 +201,7 @@
                   <c:v>32.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>52.5</c:v>
@@ -219,7 +219,7 @@
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37.5</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>37.5</c:v>
@@ -240,10 +240,10 @@
                   <c:v>47.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.5</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17.5</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>42.5</c:v>
@@ -261,19 +261,19 @@
                   <c:v>47.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>27.5</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22.5</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12.5</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>22.5</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>22.5</c:v>
@@ -288,7 +288,7 @@
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>22.5</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>22.5</c:v>
@@ -297,40 +297,40 @@
                   <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>17.5</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>17.5</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>17.5</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>17.5</c:v>
+                  <c:v>18.3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>17.5</c:v>
+                  <c:v>17.2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>17.5</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>22.5</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>17.5</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>17.5</c:v>
@@ -342,7 +342,7 @@
                   <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>17.5</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>5</c:v>
@@ -564,7 +564,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>42.5</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>52.5</c:v>
@@ -573,19 +573,19 @@
                   <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.5</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.5</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.5</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>47.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32.5</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>37.5</c:v>
@@ -594,25 +594,25 @@
                   <c:v>32.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>37.5</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>47.5</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>47.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>47.5</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>57.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>47.5</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>50</c:v>
@@ -630,13 +630,13 @@
                   <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>52.5</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>52.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>47.5</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>47.5</c:v>
@@ -779,7 +779,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>87.5</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>57.5</c:v>
@@ -794,13 +794,13 @@
                   <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>97.5</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>97.5</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>92.5</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>92.5</c:v>
@@ -815,7 +815,7 @@
                   <c:v>97.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>102.5</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>102.5</c:v>
@@ -950,10 +950,10 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>62.5</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80</c:v>
+                  <c:v>79.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>77.5</c:v>
@@ -971,19 +971,19 @@
                   <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>80</c:v>
+                  <c:v>79.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80</c:v>
+                  <c:v>80.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>67.5</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>67.5</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>80</c:v>
@@ -995,16 +995,16 @@
                   <c:v>67.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>67.5</c:v>
+                  <c:v>67.2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>62.5</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>72.5</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>72.5</c:v>
@@ -1013,7 +1013,7 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>70</c:v>
+                  <c:v>70.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>67.5</c:v>
@@ -1025,7 +1025,7 @@
                   <c:v>57.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>82.5</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>82.5</c:v>
@@ -1736,10 +1736,10 @@
                   <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.5</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>27.5</c:v>
@@ -1781,7 +1781,7 @@
                   <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>27.5</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>27.5</c:v>
@@ -1889,7 +1889,7 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52.5</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>52.5</c:v>
@@ -1898,13 +1898,13 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52.5</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52.5</c:v>
+                  <c:v>51.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>52.5</c:v>
+                  <c:v>53.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1972,13 +1972,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>72.5</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57.5</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90</c:v>
+                  <c:v>90.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>80</c:v>
@@ -1987,7 +1987,7 @@
                   <c:v>57.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>62.5</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>110</c:v>
@@ -2086,10 +2086,10 @@
                   <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>82.5</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>77.5</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>82.5</c:v>
@@ -2767,7 +2767,7 @@
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44</c:v>
+                  <c:v>44.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>44</c:v>
@@ -2886,7 +2886,7 @@
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98</c:v>
+                  <c:v>98.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>95</c:v>
@@ -3265,7 +3265,7 @@
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56</c:v>
+                  <c:v>56.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>37</c:v>
@@ -3295,7 +3295,7 @@
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>42</c:v>
@@ -3472,7 +3472,7 @@
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>40</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>40</c:v>
@@ -3597,7 +3597,7 @@
                   <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>97</c:v>
+                  <c:v>97.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>97</c:v>
@@ -4618,8 +4618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF125"/>
   <sheetViews>
-    <sheetView topLeftCell="F46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V59" sqref="V59:V71"/>
+    <sheetView topLeftCell="F19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4682,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>87.5</v>
+        <v>87</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -4693,7 +4693,7 @@
         <v>0.3</v>
       </c>
       <c r="B3">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4842,7 +4842,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>97.5</v>
+        <v>97</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>97.5</v>
+        <v>98</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -4885,7 +4885,7 @@
         <v>0.4</v>
       </c>
       <c r="B9">
-        <v>37.5</v>
+        <v>37</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>92.5</v>
+        <v>92</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>102.5</v>
+        <v>102</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -5109,7 +5109,7 @@
         <v>0.6</v>
       </c>
       <c r="B16">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -5141,7 +5141,7 @@
         <v>0.6</v>
       </c>
       <c r="B17">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -5333,7 +5333,7 @@
         <v>0.7</v>
       </c>
       <c r="B23">
-        <v>27.5</v>
+        <v>27</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -5365,7 +5365,7 @@
         <v>0.7</v>
       </c>
       <c r="B24">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -5429,7 +5429,7 @@
         <v>0.7</v>
       </c>
       <c r="B26">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -5461,7 +5461,7 @@
         <v>0.7</v>
       </c>
       <c r="B27">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -5482,7 +5482,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>62.5</v>
+        <v>62</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -5514,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>80</v>
+        <v>79.5</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -5621,7 +5621,7 @@
         <v>0.8</v>
       </c>
       <c r="B32">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>80</v>
+        <v>79.5</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -5717,7 +5717,7 @@
         <v>0.8</v>
       </c>
       <c r="B35">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -5738,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>80</v>
+        <v>80.5</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -5781,7 +5781,7 @@
         <v>0.8</v>
       </c>
       <c r="B37">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -5802,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>67.5</v>
+        <v>67</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -5834,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>67.5</v>
+        <v>68</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -5845,7 +5845,7 @@
         <v>0.8</v>
       </c>
       <c r="B39">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -5877,7 +5877,7 @@
         <v>0.8</v>
       </c>
       <c r="B40">
-        <v>17.5</v>
+        <v>18.3</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -5909,7 +5909,7 @@
         <v>0.8</v>
       </c>
       <c r="B41">
-        <v>17.5</v>
+        <v>17.2</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -5941,7 +5941,7 @@
         <v>1</v>
       </c>
       <c r="B42">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -5962,7 +5962,7 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>67.5</v>
+        <v>67.2</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -5994,7 +5994,7 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>62.5</v>
+        <v>62</v>
       </c>
       <c r="K43">
         <v>1</v>
@@ -6005,7 +6005,7 @@
         <v>1.2</v>
       </c>
       <c r="B44">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -6058,7 +6058,7 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>72.5</v>
+        <v>72</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -6069,7 +6069,7 @@
         <v>1.4</v>
       </c>
       <c r="B46">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -6154,7 +6154,7 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>70</v>
+        <v>70.5</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -6197,7 +6197,7 @@
         <v>2</v>
       </c>
       <c r="B50">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -6282,7 +6282,7 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>82.5</v>
+        <v>82</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -6389,7 +6389,7 @@
         <v>0.5</v>
       </c>
       <c r="B56">
-        <v>42.5</v>
+        <v>42</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -6458,7 +6458,7 @@
         <v>0.5</v>
       </c>
       <c r="B59">
-        <v>42.5</v>
+        <v>43</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -6520,7 +6520,7 @@
         <v>0.6</v>
       </c>
       <c r="B60">
-        <v>32.5</v>
+        <v>32</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -6584,7 +6584,7 @@
         <v>0.6</v>
       </c>
       <c r="B61">
-        <v>37.5</v>
+        <v>37</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -6713,7 +6713,7 @@
         <v>0.6</v>
       </c>
       <c r="B63">
-        <v>32.5</v>
+        <v>33</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -6908,7 +6908,7 @@
         <v>0.6</v>
       </c>
       <c r="B66">
-        <v>37.5</v>
+        <v>38</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -7038,7 +7038,7 @@
         <v>0.7</v>
       </c>
       <c r="B68">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -7156,7 +7156,7 @@
         <v>0.7</v>
       </c>
       <c r="B70">
-        <v>47.5</v>
+        <v>48</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -7280,7 +7280,7 @@
         <v>0.8</v>
       </c>
       <c r="B72">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -7530,7 +7530,7 @@
         <v>0.8</v>
       </c>
       <c r="B78">
-        <v>52.5</v>
+        <v>52</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -7626,7 +7626,7 @@
         <v>1.6</v>
       </c>
       <c r="B80">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -8546,9 +8546,6 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="P60:T142">
-    <sortCondition ref="P60:P142"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -8559,8 +8556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD27"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="W19" sqref="W19"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8641,7 +8638,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>72.5</v>
+        <v>72</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -8673,7 +8670,7 @@
         <v>0.6</v>
       </c>
       <c r="B3">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -8694,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>57.5</v>
+        <v>57</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -8747,7 +8744,7 @@
         <v>0.6</v>
       </c>
       <c r="B4">
-        <v>37.5</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8768,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>90</v>
+        <v>90.5</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -8999,7 +8996,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>62.5</v>
+        <v>62</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -9422,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>82.5</v>
+        <v>82</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -9472,7 +9469,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>77.5</v>
+        <v>77</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -9501,7 +9498,7 @@
         <v>2</v>
       </c>
       <c r="B18">
-        <v>27.5</v>
+        <v>27</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -9680,7 +9677,7 @@
         <v>0.7</v>
       </c>
       <c r="B22">
-        <v>52.5</v>
+        <v>52</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -9758,7 +9755,7 @@
         <v>0.6</v>
       </c>
       <c r="B25">
-        <v>52.5</v>
+        <v>53</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -9778,7 +9775,7 @@
         <v>0.7</v>
       </c>
       <c r="B26">
-        <v>52.5</v>
+        <v>51.8</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -9798,7 +9795,7 @@
         <v>0.7</v>
       </c>
       <c r="B27">
-        <v>52.5</v>
+        <v>53.2</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -9826,8 +9823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB37"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -10337,7 +10334,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>98</v>
+        <v>98.5</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -11449,7 +11446,7 @@
         <v>1.2</v>
       </c>
       <c r="B33">
-        <v>44</v>
+        <v>44.5</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -11588,7 +11585,7 @@
   <dimension ref="A1:AN42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AG40" sqref="AG40"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -11710,7 +11707,7 @@
         <v>0.9</v>
       </c>
       <c r="B3">
-        <v>56</v>
+        <v>56.5</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -11832,7 +11829,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -12686,7 +12683,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B13">
-        <v>42</v>
+        <v>42.5</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -13685,7 +13682,7 @@
         <v>1.4</v>
       </c>
       <c r="B40">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="C40">
         <v>1</v>

--- a/Resultater/Resultater.xlsx
+++ b/Resultater/Resultater.xlsx
@@ -150,7 +150,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1157,11 +1156,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="76422528"/>
-        <c:axId val="76445952"/>
+        <c:axId val="87854464"/>
+        <c:axId val="87877888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="76422528"/>
+        <c:axId val="87854464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -1209,18 +1208,17 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76445952"/>
+        <c:crossAx val="87877888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76445952"/>
+        <c:axId val="87877888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.1"/>
@@ -1257,12 +1255,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76422528"/>
+        <c:crossAx val="87854464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -1270,7 +1267,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1302,7 +1298,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1606,11 +1601,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76940416"/>
-        <c:axId val="76941952"/>
+        <c:axId val="87514496"/>
+        <c:axId val="87537152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76940416"/>
+        <c:axId val="87514496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1619,14 +1614,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76941952"/>
+        <c:crossAx val="87537152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76941952"/>
+        <c:axId val="87537152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1640,21 +1635,20 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="76940416"/>
+        <c:crossAx val="87514496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2134,11 +2128,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="77182080"/>
-        <c:axId val="77184384"/>
+        <c:axId val="88145920"/>
+        <c:axId val="88148224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="77182080"/>
+        <c:axId val="88145920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -2207,13 +2201,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77184384"/>
+        <c:crossAx val="88148224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77184384"/>
+        <c:axId val="88148224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.1"/>
@@ -2255,7 +2249,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77182080"/>
+        <c:crossAx val="88145920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -2269,7 +2263,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2287,8 +2281,30 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Geometriy one 400</c:v>
+            <c:v>Geometry a, 400 A</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>'d3 400_24'!$AA$13:$AA$24</c:f>
@@ -2384,8 +2400,30 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Geometry two</c:v>
+            <c:v>Geometry b, 400 A</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>'d3 400_24'!$AA$13:$AA$24</c:f>
@@ -2451,35 +2489,80 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="86181760"/>
-        <c:axId val="86183296"/>
+        <c:axId val="88185472"/>
+        <c:axId val="88187648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86181760"/>
+        <c:axId val="88185472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO"/>
+                  <a:t>Upstream over-pressure [bar]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86183296"/>
+        <c:crossAx val="88187648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86183296"/>
+        <c:axId val="88187648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO"/>
+                  <a:t>Successful interruptions [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86181760"/>
-        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:noFill/>
+        </c:spPr>
+        <c:crossAx val="88185472"/>
+        <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2488,9 +2571,17 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2521,7 +2612,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3048,11 +3138,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="77380608"/>
-        <c:axId val="77399552"/>
+        <c:axId val="88251776"/>
+        <c:axId val="88266624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="77380608"/>
+        <c:axId val="88251776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -3116,18 +3206,17 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77399552"/>
+        <c:crossAx val="88266624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77399552"/>
+        <c:axId val="88266624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.1"/>
@@ -3164,12 +3253,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77380608"/>
+        <c:crossAx val="88251776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -3177,7 +3265,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -3753,11 +3840,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="77541760"/>
-        <c:axId val="77544064"/>
+        <c:axId val="88429312"/>
+        <c:axId val="88431616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="77541760"/>
+        <c:axId val="88429312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -3826,13 +3913,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77544064"/>
+        <c:crossAx val="88431616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77544064"/>
+        <c:axId val="88431616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.1"/>
@@ -3874,7 +3961,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77541760"/>
+        <c:crossAx val="88429312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -4055,25 +4142,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="96133888"/>
-        <c:axId val="96135424"/>
+        <c:axId val="88415232"/>
+        <c:axId val="88462080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96133888"/>
+        <c:axId val="88415232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96135424"/>
+        <c:crossAx val="88462080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96135424"/>
+        <c:axId val="88462080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4081,7 +4168,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96133888"/>
+        <c:crossAx val="88415232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4095,7 +4182,310 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nb-NO"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Geometry a, 630 A</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'d3 630_24'!$AF$21:$AF$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'d3 630_24'!$AH$21:$AH$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.333333333333343</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Geometry b, 630 A</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'d3 630_24'!$AF$21:$AF$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'d3 630_24'!$AG$21:$AG$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="2">
+                  <c:v>42.857142857142854</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="103347328"/>
+        <c:axId val="103349632"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="103347328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO"/>
+                  <a:t>Upstream over-pressure [bar]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="103349632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="103349632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO"/>
+                  <a:t>Successful interruptions [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+        </c:spPr>
+        <c:crossAx val="103347328"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4200,16 +4590,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>472106</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>183046</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>215347</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>49696</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4323,6 +4713,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>459442</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>537882</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagram 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4618,7 +5038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF125"/>
   <sheetViews>
-    <sheetView topLeftCell="F19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C45" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
@@ -8556,8 +8976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD27"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView topLeftCell="O2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Y50" sqref="Y50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9815,7 +10235,8 @@
     <sortCondition ref="O2:O27"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10059,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <f>U4/W4*100</f>
+        <f t="shared" ref="V4:V12" si="0">U4/W4*100</f>
         <v>0</v>
       </c>
       <c r="W4">
@@ -10072,14 +10493,14 @@
         <v>1</v>
       </c>
       <c r="Z4">
-        <f>X4/Y4*100</f>
+        <f t="shared" ref="Z4:Z12" si="1">X4/Y4*100</f>
         <v>0</v>
       </c>
       <c r="AA4">
         <v>1</v>
       </c>
       <c r="AB4">
-        <f>(U4+X4)/AA4*100</f>
+        <f t="shared" ref="AB4:AB12" si="2">(U4+X4)/AA4*100</f>
         <v>0</v>
       </c>
     </row>
@@ -10130,7 +10551,7 @@
         <v>1</v>
       </c>
       <c r="V5">
-        <f>U5/W5*100</f>
+        <f t="shared" si="0"/>
         <v>16.666666666666664</v>
       </c>
       <c r="W5">
@@ -10143,14 +10564,14 @@
         <v>5</v>
       </c>
       <c r="Z5">
-        <f>X5/Y5*100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA5">
         <v>6</v>
       </c>
       <c r="AB5">
-        <f>(U5+X5)/AA5*100</f>
+        <f t="shared" si="2"/>
         <v>16.666666666666664</v>
       </c>
     </row>
@@ -10207,7 +10628,7 @@
         <v>1</v>
       </c>
       <c r="V6">
-        <f>U6/W6*100</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="W6">
@@ -10220,14 +10641,14 @@
         <v>4</v>
       </c>
       <c r="Z6">
-        <f>X6/Y6*100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA6">
         <v>5</v>
       </c>
       <c r="AB6">
-        <f>(U6+X6)/AA6*100</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -10284,7 +10705,7 @@
         <v>1</v>
       </c>
       <c r="V7">
-        <f>U7/W7*100</f>
+        <f t="shared" si="0"/>
         <v>16.666666666666664</v>
       </c>
       <c r="W7">
@@ -10297,14 +10718,14 @@
         <v>5</v>
       </c>
       <c r="Z7">
-        <f>X7/Y7*100</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="AA7">
         <v>5</v>
       </c>
       <c r="AB7">
-        <f>(U7+X7)/AA7*100</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
@@ -10361,7 +10782,7 @@
         <v>5</v>
       </c>
       <c r="V8">
-        <f>U8/W8*100</f>
+        <f t="shared" si="0"/>
         <v>83.333333333333343</v>
       </c>
       <c r="W8">
@@ -10374,14 +10795,14 @@
         <v>1</v>
       </c>
       <c r="Z8">
-        <f>X8/Y8*100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA8">
         <v>6</v>
       </c>
       <c r="AB8">
-        <f>(U8+X8)/AA8*100</f>
+        <f t="shared" si="2"/>
         <v>83.333333333333343</v>
       </c>
     </row>
@@ -10438,7 +10859,7 @@
         <v>5</v>
       </c>
       <c r="V9">
-        <f>U9/W9*100</f>
+        <f t="shared" si="0"/>
         <v>83.333333333333343</v>
       </c>
       <c r="W9">
@@ -10451,14 +10872,14 @@
         <v>1</v>
       </c>
       <c r="Z9">
-        <f>X9/Y9*100</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="AA9">
         <v>6</v>
       </c>
       <c r="AB9">
-        <f>(U9+X9)/AA9*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
@@ -10515,7 +10936,7 @@
         <v>0</v>
       </c>
       <c r="V10">
-        <f>U10/W10*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W10">
@@ -10528,14 +10949,14 @@
         <v>1</v>
       </c>
       <c r="Z10">
-        <f>X10/Y10*100</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="AA10">
         <v>1</v>
       </c>
       <c r="AB10">
-        <f>(U10+X10)/AA10*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
@@ -10592,7 +11013,7 @@
         <v>0</v>
       </c>
       <c r="V11">
-        <f>U11/W11*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W11">
@@ -10605,14 +11026,14 @@
         <v>1</v>
       </c>
       <c r="Z11">
-        <f>X11/Y11*100</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="AA11">
         <v>1</v>
       </c>
       <c r="AB11">
-        <f>(U11+X11)/AA11*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
@@ -10663,7 +11084,7 @@
         <v>0</v>
       </c>
       <c r="V12">
-        <f>U12/W12*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W12">
@@ -10676,14 +11097,14 @@
         <v>1</v>
       </c>
       <c r="Z12">
-        <f>X12/Y12*100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA12">
         <v>1</v>
       </c>
       <c r="AB12">
-        <f>(U12+X12)/AA12*100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11584,8 +12005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AN42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="U37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AL79" sqref="AL79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -11856,7 +12277,7 @@
         <v>1</v>
       </c>
       <c r="X4">
-        <f>W4/Y4*100</f>
+        <f t="shared" ref="X4:X10" si="0">W4/Y4*100</f>
         <v>14.285714285714285</v>
       </c>
       <c r="Y4">
@@ -11886,7 +12307,7 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <f>AG4/AI4*100</f>
+        <f t="shared" ref="AH4:AH12" si="1">AG4/AI4*100</f>
         <v>0</v>
       </c>
       <c r="AI4">
@@ -11899,14 +12320,14 @@
         <v>1</v>
       </c>
       <c r="AL4">
-        <f>AJ4/AK4*100</f>
+        <f t="shared" ref="AL4:AL12" si="2">AJ4/AK4*100</f>
         <v>0</v>
       </c>
       <c r="AM4">
         <v>1</v>
       </c>
       <c r="AN4">
-        <f>(AG4+AJ4)/AM4*100</f>
+        <f t="shared" ref="AN4:AN12" si="3">(AG4+AJ4)/AM4*100</f>
         <v>0</v>
       </c>
     </row>
@@ -11963,7 +12384,7 @@
         <v>6</v>
       </c>
       <c r="X5">
-        <f>W5/Y5*100</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="Y5">
@@ -11993,7 +12414,7 @@
         <v>1</v>
       </c>
       <c r="AH5">
-        <f>AG5/AI5*100</f>
+        <f t="shared" si="1"/>
         <v>16.666666666666664</v>
       </c>
       <c r="AI5">
@@ -12006,14 +12427,14 @@
         <v>5</v>
       </c>
       <c r="AL5">
-        <f>AJ5/AK5*100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM5">
         <v>6</v>
       </c>
       <c r="AN5">
-        <f>(AG5+AJ5)/AM5*100</f>
+        <f t="shared" si="3"/>
         <v>16.666666666666664</v>
       </c>
     </row>
@@ -12064,7 +12485,7 @@
         <v>2</v>
       </c>
       <c r="X6">
-        <f>W6/Y6*100</f>
+        <f t="shared" si="0"/>
         <v>33.333333333333329</v>
       </c>
       <c r="Y6">
@@ -12094,7 +12515,7 @@
         <v>1</v>
       </c>
       <c r="AH6">
-        <f>AG6/AI6*100</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="AI6">
@@ -12107,14 +12528,14 @@
         <v>4</v>
       </c>
       <c r="AL6">
-        <f>AJ6/AK6*100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM6">
         <v>5</v>
       </c>
       <c r="AN6">
-        <f>(AG6+AJ6)/AM6*100</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
@@ -12171,7 +12592,7 @@
         <v>4</v>
       </c>
       <c r="X7">
-        <f>W7/Y7*100</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="Y7">
@@ -12201,7 +12622,7 @@
         <v>1</v>
       </c>
       <c r="AH7">
-        <f>AG7/AI7*100</f>
+        <f t="shared" si="1"/>
         <v>16.666666666666664</v>
       </c>
       <c r="AI7">
@@ -12214,14 +12635,14 @@
         <v>5</v>
       </c>
       <c r="AL7">
-        <f>AJ7/AK7*100</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AM7">
         <v>5</v>
       </c>
       <c r="AN7">
-        <f>(AG7+AJ7)/AM7*100</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
@@ -12278,7 +12699,7 @@
         <v>4</v>
       </c>
       <c r="X8">
-        <f>W8/Y8*100</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="Y8">
@@ -12308,7 +12729,7 @@
         <v>5</v>
       </c>
       <c r="AH8">
-        <f>AG8/AI8*100</f>
+        <f t="shared" si="1"/>
         <v>83.333333333333343</v>
       </c>
       <c r="AI8">
@@ -12321,14 +12742,14 @@
         <v>1</v>
       </c>
       <c r="AL8">
-        <f>AJ8/AK8*100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM8">
         <v>6</v>
       </c>
       <c r="AN8">
-        <f>(AG8+AJ8)/AM8*100</f>
+        <f t="shared" si="3"/>
         <v>83.333333333333343</v>
       </c>
     </row>
@@ -12379,7 +12800,7 @@
         <v>5</v>
       </c>
       <c r="X9">
-        <f>W9/Y9*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="Y9">
@@ -12389,7 +12810,7 @@
         <v>5</v>
       </c>
       <c r="AD9">
-        <f t="shared" ref="AD9:AD10" si="0">(W9+Z9)/AC9*100</f>
+        <f t="shared" ref="AD9:AD10" si="4">(W9+Z9)/AC9*100</f>
         <v>100</v>
       </c>
       <c r="AF9">
@@ -12399,7 +12820,7 @@
         <v>5</v>
       </c>
       <c r="AH9">
-        <f>AG9/AI9*100</f>
+        <f t="shared" si="1"/>
         <v>83.333333333333343</v>
       </c>
       <c r="AI9">
@@ -12412,14 +12833,14 @@
         <v>1</v>
       </c>
       <c r="AL9">
-        <f>AJ9/AK9*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="AM9">
         <v>6</v>
       </c>
       <c r="AN9">
-        <f>(AG9+AJ9)/AM9*100</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
@@ -12476,7 +12897,7 @@
         <v>0</v>
       </c>
       <c r="X10">
-        <f>W10/Y10*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y10">
@@ -12489,14 +12910,14 @@
         <v>1</v>
       </c>
       <c r="AB10">
-        <f t="shared" ref="AB9:AB10" si="1">Z10/AA10*100</f>
+        <f t="shared" ref="AB10" si="5">Z10/AA10*100</f>
         <v>0</v>
       </c>
       <c r="AC10">
         <v>1</v>
       </c>
       <c r="AD10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AF10">
@@ -12506,7 +12927,7 @@
         <v>0</v>
       </c>
       <c r="AH10">
-        <f>AG10/AI10*100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AI10">
@@ -12519,14 +12940,14 @@
         <v>1</v>
       </c>
       <c r="AL10">
-        <f>AJ10/AK10*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="AM10">
         <v>1</v>
       </c>
       <c r="AN10">
-        <f>(AG10+AJ10)/AM10*100</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
@@ -12577,7 +12998,7 @@
         <v>0</v>
       </c>
       <c r="AH11">
-        <f>AG11/AI11*100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AI11">
@@ -12590,14 +13011,14 @@
         <v>1</v>
       </c>
       <c r="AL11">
-        <f>AJ11/AK11*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="AM11">
         <v>1</v>
       </c>
       <c r="AN11">
-        <f>(AG11+AJ11)/AM11*100</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
@@ -12654,7 +13075,7 @@
         <v>0</v>
       </c>
       <c r="AH12">
-        <f>AG12/AI12*100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AI12">
@@ -12667,14 +13088,14 @@
         <v>1</v>
       </c>
       <c r="AL12">
-        <f>AJ12/AK12*100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM12">
         <v>1</v>
       </c>
       <c r="AN12">
-        <f>(AG12+AJ12)/AM12*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>

--- a/Resultater/Resultater.xlsx
+++ b/Resultater/Resultater.xlsx
@@ -129,28 +129,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="nb-NO"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="nb-NO"/>
-              <a:t>Interruption test for geometry</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="nb-NO" baseline="0"/>
-              <a:t> one at 400 A</a:t>
-            </a:r>
-            <a:endParaRPr lang="nb-NO"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-    </c:title>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1156,11 +1135,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="87854464"/>
-        <c:axId val="87877888"/>
+        <c:axId val="85036416"/>
+        <c:axId val="85059840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87854464"/>
+        <c:axId val="85036416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -1198,7 +1177,15 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="nb-NO"/>
-                  <a:t>Position</a:t>
+                  <a:t>Pin</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nb-NO" baseline="0"/>
+                  <a:t> p</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nb-NO"/>
+                  <a:t>osition</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="nb-NO" baseline="0"/>
@@ -1208,17 +1195,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87877888"/>
+        <c:crossAx val="85059840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87877888"/>
+        <c:axId val="85059840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.1"/>
@@ -1245,21 +1233,22 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="nb-NO"/>
-                  <a:t>Pressure difference</a:t>
+                  <a:t>Upstream over-pressure</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="nb-NO" baseline="0"/>
-                  <a:t> [bar]</a:t>
+                  <a:t>[bar]</a:t>
                 </a:r>
                 <a:endParaRPr lang="nb-NO"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87854464"/>
+        <c:crossAx val="85036416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -1267,6 +1256,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1275,6 +1265,7 @@
     <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -1298,6 +1289,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1601,11 +1593,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="87514496"/>
-        <c:axId val="87537152"/>
+        <c:axId val="84696448"/>
+        <c:axId val="84715008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87514496"/>
+        <c:axId val="84696448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1614,14 +1606,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87537152"/>
+        <c:crossAx val="84715008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87537152"/>
+        <c:axId val="84715008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1635,20 +1627,21 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="87514496"/>
+        <c:crossAx val="84696448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1658,29 +1651,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="nb-NO"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="nb-NO"/>
-              <a:t>Interruption test for geometry</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="nb-NO" baseline="0"/>
-              <a:t> two at 400 A</a:t>
-            </a:r>
-            <a:endParaRPr lang="nb-NO"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -2128,11 +2099,2195 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="88145920"/>
-        <c:axId val="88148224"/>
+        <c:axId val="85258240"/>
+        <c:axId val="85260544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88145920"/>
+        <c:axId val="85258240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:alpha val="25000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO"/>
+                  <a:t>Pin</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nb-NO" baseline="0"/>
+                  <a:t> p</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nb-NO"/>
+                  <a:t>osition in nozzle for current zero crossing [mm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="85260544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="85260544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.1"/>
+          <c:min val="0.2"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO" baseline="0"/>
+                  <a:t>Upstream over-pressure[bar]</a:t>
+                </a:r>
+                <a:endParaRPr lang="nb-NO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="85258240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nb-NO"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Geometry a, 400 A</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'d3 400_24'!$AA$13:$AA$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'d3 400_24'!$AB$13:$AB$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.666666666666657</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.777777777777786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90.909090909090907</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Geometry b, 400 A</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'d3 400_24'!$AA$13:$AA$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'d3 400_24'!$AC$13:$AC$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="85367424"/>
+        <c:axId val="85386368"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="85367424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO"/>
+                  <a:t>Upstream over-pressure [bar]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="85386368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="85386368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO"/>
+                  <a:t>Successful interruptions [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+        </c:spPr>
+        <c:crossAx val="85367424"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nb-NO"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1. CZFailure</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="44"/>
+            <c:marker>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:marker>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'d4 630_24'!$B$2:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'d4 630_24'!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1. CZ Success</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'d4 630_24'!$B$23:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'d4 630_24'!$A$23:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>2. CZ Failure</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'d4 630_24'!$J$2:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'d4 630_24'!$G$2:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>2. CZ Success</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'d4 630_24'!$J$19:$J$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'d4 630_24'!$G$19:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="85451136"/>
+        <c:axId val="85453440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="85451136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:alpha val="25000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO"/>
+                  <a:t>Pin position in nozzle for current zero crossing [mm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="85453440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="85453440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.1"/>
+          <c:min val="0.2"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO" baseline="0"/>
+                  <a:t> Upstream over-pressure [bar]</a:t>
+                </a:r>
+                <a:endParaRPr lang="nb-NO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="85451136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nb-NO"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Geometry two 630 A</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'d4 630_24'!$T$4:$T$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'d3 630_24'!$AG$21:$AG$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="2">
+                  <c:v>42.857142857142854</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Geometry one 630 A</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'d4 630_24'!$T$4:$T$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'d3 630_24'!$AH$21:$AH$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.333333333333343</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="85581824"/>
+        <c:axId val="85583360"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="85581824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="85583360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="85583360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="85581824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nb-NO"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Geometry a, 630 A</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'d3 630_24'!$AF$21:$AF$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'d3 630_24'!$AH$21:$AH$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.333333333333343</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Geometry b, 630 A</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'d3 630_24'!$AF$21:$AF$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'d3 630_24'!$AG$21:$AG$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="2">
+                  <c:v>42.857142857142854</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="85623936"/>
+        <c:axId val="85626240"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="85623936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO"/>
+                  <a:t>Upstream over-pressure [bar]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="85626240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="85626240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO"/>
+                  <a:t>Successful interruptions [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+        </c:spPr>
+        <c:crossAx val="85623936"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nb-NO"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1. CZ Failure</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="44"/>
+            <c:marker>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:marker>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'d3 630_24'!$B$2:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'d3 630_24'!$A$2:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1. CZ Success</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'d3 630_24'!$B$20:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'d3 630_24'!$A$20:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>2. CZ Failure</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'d3 630_24'!$J$2:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'d3 630_24'!$G$2:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>2. CZ Success</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'d3 630_24'!$J$13:$J$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'d3 630_24'!$G$13:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="85546496"/>
+        <c:axId val="85565440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="85546496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -2201,13 +4356,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88148224"/>
+        <c:crossAx val="85565440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88148224"/>
+        <c:axId val="85565440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.1"/>
@@ -2249,7 +4404,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88145920"/>
+        <c:crossAx val="85546496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -2266,2228 +4421,7 @@
     <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="nb-NO"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Geometry a, 400 A</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'d3 400_24'!$AA$13:$AA$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'d3 400_24'!$AB$13:$AB$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>66.666666666666657</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>77.777777777777786</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90.909090909090907</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>80</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Geometry b, 400 A</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'d3 400_24'!$AA$13:$AA$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'d3 400_24'!$AC$13:$AC$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="88185472"/>
-        <c:axId val="88187648"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="88185472"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:majorGridlines/>
-        <c:minorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="nb-NO"/>
-                  <a:t>Upstream over-pressure [bar]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88187648"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="88187648"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="100"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="nb-NO"/>
-                  <a:t>Successful interruptions [%]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-        </c:spPr>
-        <c:crossAx val="88185472"/>
-        <c:crossesAt val="1"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="10"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="nb-NO"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="nb-NO"/>
-              <a:t>Interruption test for geometry</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="nb-NO" baseline="0"/>
-              <a:t> one at 630 A</a:t>
-            </a:r>
-            <a:endParaRPr lang="nb-NO"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>1. CZFailure</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="44"/>
-            <c:marker>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:ln>
-              </c:spPr>
-            </c:marker>
-          </c:dPt>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'d4 630_24'!$B$2:$B$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'d4 630_24'!$A$2:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>1. CZ Success</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'d4 630_24'!$B$23:$B$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>48</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'d4 630_24'!$A$23:$A$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>2. CZ Failure</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="star"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'d4 630_24'!$J$2:$J$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>98.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>70</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'d4 630_24'!$G$2:$G$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>2. CZ Success</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'d4 630_24'!$J$19:$J$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>68</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'d4 630_24'!$G$19:$G$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="88251776"/>
-        <c:axId val="88266624"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="88251776"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="110"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:alpha val="25000"/>
-                </a:sysClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                  <a:lnSpc>
-                    <a:spcPct val="100000"/>
-                  </a:lnSpc>
-                  <a:spcBef>
-                    <a:spcPts val="0"/>
-                  </a:spcBef>
-                  <a:spcAft>
-                    <a:spcPts val="0"/>
-                  </a:spcAft>
-                  <a:buClrTx/>
-                  <a:buSzTx/>
-                  <a:buFontTx/>
-                  <a:buNone/>
-                  <a:tabLst/>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="nb-NO"/>
-                  <a:t>Position in nozzle for current zero crossing [mm]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88266624"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="5"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="88266624"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="2.1"/>
-          <c:min val="0.2"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="nb-NO"/>
-                  <a:t>Pressure difference</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="nb-NO" baseline="0"/>
-                  <a:t> [bar]</a:t>
-                </a:r>
-                <a:endParaRPr lang="nb-NO"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88251776"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="0.1"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="nb-NO"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="nb-NO"/>
-              <a:t>Interruption test for geometry</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="nb-NO" baseline="0"/>
-              <a:t> two at 630 A</a:t>
-            </a:r>
-            <a:endParaRPr lang="nb-NO"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>1. CZ Failure</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="44"/>
-            <c:marker>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:ln>
-              </c:spPr>
-            </c:marker>
-          </c:dPt>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'d3 630_24'!$B$2:$B$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>56.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'d3 630_24'!$A$2:$A$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>1. CZ Success</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'d3 630_24'!$B$20:$B$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>40.5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>41</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'d3 630_24'!$A$20:$A$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>2. CZ Failure</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="star"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'d3 630_24'!$J$2:$J$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>97.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>60</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'d3 630_24'!$G$2:$G$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>2. CZ Success</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'d3 630_24'!$J$13:$J$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>58</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'d3 630_24'!$G$13:$G$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="88429312"/>
-        <c:axId val="88431616"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="88429312"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="110"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:alpha val="25000"/>
-                </a:sysClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                  <a:lnSpc>
-                    <a:spcPct val="100000"/>
-                  </a:lnSpc>
-                  <a:spcBef>
-                    <a:spcPts val="0"/>
-                  </a:spcBef>
-                  <a:spcAft>
-                    <a:spcPts val="0"/>
-                  </a:spcAft>
-                  <a:buClrTx/>
-                  <a:buSzTx/>
-                  <a:buFontTx/>
-                  <a:buNone/>
-                  <a:tabLst/>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="nb-NO"/>
-                  <a:t>Position in nozzle for current zero crossing [mm]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88431616"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="5"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="88431616"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="2.1"/>
-          <c:min val="0.2"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="nb-NO"/>
-                  <a:t>Pressure difference</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="nb-NO" baseline="0"/>
-                  <a:t> [bar]</a:t>
-                </a:r>
-                <a:endParaRPr lang="nb-NO"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88429312"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="0.1"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="nb-NO"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Geometry two 630 A</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'d4 630_24'!$T$4:$T$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'d3 630_24'!$AG$21:$AG$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="2">
-                  <c:v>42.857142857142854</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Geometry one 630 A</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'d4 630_24'!$T$4:$T$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'d3 630_24'!$AH$21:$AH$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.666666666666664</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>83.333333333333343</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="88415232"/>
-        <c:axId val="88462080"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="88415232"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88462080"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="88462080"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88415232"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="span"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="nb-NO"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Geometry a, 630 A</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'d3 630_24'!$AF$21:$AF$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'d3 630_24'!$AH$21:$AH$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.666666666666664</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>83.333333333333343</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Geometry b, 630 A</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'d3 630_24'!$AF$21:$AF$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'d3 630_24'!$AG$21:$AG$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="2">
-                  <c:v>42.857142857142854</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="103347328"/>
-        <c:axId val="103349632"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="103347328"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:majorGridlines/>
-        <c:minorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="nb-NO"/>
-                  <a:t>Upstream over-pressure [bar]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103349632"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="103349632"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="100"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="nb-NO"/>
-                  <a:t>Successful interruptions [%]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-        </c:spPr>
-        <c:crossAx val="103347328"/>
-        <c:crossesAt val="1"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="10"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
-    <c:pageSetup/>
-  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -4557,6 +4491,395 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.04321</cdr:x>
+      <cdr:y>0.01892</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.08256</cdr:x>
+      <cdr:y>0.92895</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="Rektangel 3"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="627529" y="155203"/>
+          <a:ext cx="571500" cy="7463117"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+            <a:alpha val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.24151</cdr:x>
+      <cdr:y>0.01756</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.28086</cdr:x>
+      <cdr:y>0.92915</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="Rektangel 4"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3507441" y="143997"/>
+          <a:ext cx="571500" cy="7476003"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+            <a:alpha val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF">
+              <a:lumMod val="85000"/>
+            </a:sysClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.28164</cdr:x>
+      <cdr:y>0.01756</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.32099</cdr:x>
+      <cdr:y>0.92779</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="Rektangel 5"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4090147" y="143998"/>
+          <a:ext cx="571500" cy="7464796"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+            <a:alpha val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF">
+              <a:lumMod val="85000"/>
+            </a:sysClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.28133</cdr:x>
+      <cdr:y>0.01619</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.28164</cdr:x>
+      <cdr:y>0.92546</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="Rett linje 2"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+          <a:off x="4085663" y="132792"/>
+          <a:ext cx="4484" cy="7456956"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4590,6 +4913,481 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>683559</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>155203</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rektangel 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2398059" y="5670176"/>
+          <a:ext cx="571500" cy="7439027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+            <a:alpha val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>705971</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>515471</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rektangel 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5277971" y="5670176"/>
+          <a:ext cx="571500" cy="7440707"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+            <a:alpha val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF">
+              <a:lumMod val="85000"/>
+            </a:sysClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>526677</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>134469</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>336177</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rektangel 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5860677" y="5658969"/>
+          <a:ext cx="571500" cy="7440707"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+            <a:alpha val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF">
+              <a:lumMod val="85000"/>
+            </a:sysClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>472106</xdr:colOff>
       <xdr:row>24</xdr:row>
@@ -4618,10 +5416,289 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>515470</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>526675</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>139517</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rett linje 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5849470" y="5692589"/>
+          <a:ext cx="11205" cy="7400928"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.28164</cdr:x>
+      <cdr:y>0.06695</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.28194</cdr:x>
+      <cdr:y>0.9284</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Rett linje 1"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+          <a:off x="4090147" y="549089"/>
+          <a:ext cx="4484" cy="7064751"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4653,41 +5730,571 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>130552</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rett linje 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4905374" y="7572376"/>
+          <a:ext cx="9525" cy="7417176"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.04198</cdr:x>
+      <cdr:y>0.01838</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.08133</cdr:x>
+      <cdr:y>0.92977</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="Rektangel 4"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="609600" y="150721"/>
+          <a:ext cx="571500" cy="7474324"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:sysClr val="window" lastClr="FFFFFF">
+            <a:lumMod val="85000"/>
+            <a:alpha val="60000"/>
+          </a:sysClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF">
+              <a:lumMod val="85000"/>
+            </a:sysClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.24028</cdr:x>
+      <cdr:y>0.01858</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.27963</cdr:x>
+      <cdr:y>0.92997</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="Rektangel 5"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3489512" y="152401"/>
+          <a:ext cx="571500" cy="7474324"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:sysClr val="window" lastClr="FFFFFF">
+            <a:lumMod val="85000"/>
+            <a:alpha val="60000"/>
+          </a:sysClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF">
+              <a:lumMod val="85000"/>
+            </a:sysClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.2804</cdr:x>
+      <cdr:y>0.01722</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.31975</cdr:x>
+      <cdr:y>0.92861</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="7" name="Rektangel 6"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4072218" y="141194"/>
+          <a:ext cx="571500" cy="7474324"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:sysClr val="window" lastClr="FFFFFF">
+            <a:lumMod val="85000"/>
+            <a:alpha val="60000"/>
+          </a:sysClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF">
+              <a:lumMod val="85000"/>
+            </a:sysClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>435349</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagram 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
@@ -4712,7 +6319,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4742,13 +6349,602 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>435349</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="Gruppe 5"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1914525" y="8343900"/>
+          <a:ext cx="14522824" cy="8201026"/>
+          <a:chOff x="1914525" y="8343900"/>
+          <a:chExt cx="14522824" cy="8201026"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="2" name="Diagram 1"/>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="1914525" y="8343900"/>
+          <a:ext cx="14522824" cy="8201026"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Rett linje 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="5983942" y="8504465"/>
+            <a:ext cx="3201" cy="7457758"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square"/>
+          <a:lstStyle>
+            <a:lvl1pPr marL="0" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.04244</cdr:x>
+      <cdr:y>0.01958</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.08179</cdr:x>
+      <cdr:y>0.93031</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Rektangel 1"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="616324" y="160565"/>
+          <a:ext cx="571500" cy="7468962"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:sysClr val="window" lastClr="FFFFFF">
+            <a:lumMod val="85000"/>
+            <a:alpha val="34000"/>
+          </a:sysClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF">
+              <a:lumMod val="85000"/>
+            </a:sysClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.24074</cdr:x>
+      <cdr:y>0.01978</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.28009</cdr:x>
+      <cdr:y>0.93052</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="Rektangel 2"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3496236" y="162245"/>
+          <a:ext cx="571500" cy="7468962"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:sysClr val="window" lastClr="FFFFFF">
+            <a:lumMod val="85000"/>
+            <a:alpha val="34000"/>
+          </a:sysClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF">
+              <a:lumMod val="85000"/>
+            </a:sysClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.28086</cdr:x>
+      <cdr:y>0.01842</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.32022</cdr:x>
+      <cdr:y>0.92915</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="Rektangel 3"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4078942" y="151038"/>
+          <a:ext cx="571500" cy="7468962"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:sysClr val="window" lastClr="FFFFFF">
+            <a:lumMod val="85000"/>
+            <a:alpha val="34000"/>
+          </a:sysClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF">
+              <a:lumMod val="85000"/>
+            </a:sysClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5038,8 +7234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF125"/>
   <sheetViews>
-    <sheetView topLeftCell="C45" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+    <sheetView topLeftCell="L13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X51" sqref="X51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8976,8 +11172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD27"/>
   <sheetViews>
-    <sheetView topLeftCell="O2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Y50" sqref="Y50"/>
+    <sheetView topLeftCell="C26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -10244,8 +12440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -12005,8 +14201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AN42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AL79" sqref="AL79"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/Resultater/Resultater.xlsx
+++ b/Resultater/Resultater.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="28515" windowHeight="12600" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="28515" windowHeight="12600" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="d4 400_24" sheetId="1" r:id="rId1"/>
     <sheet name="d3 400_24" sheetId="2" r:id="rId2"/>
     <sheet name="d4 630_24" sheetId="3" r:id="rId3"/>
     <sheet name="d3 630_24" sheetId="4" r:id="rId4"/>
+    <sheet name="Ark1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -1135,11 +1136,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="85036416"/>
-        <c:axId val="85059840"/>
+        <c:axId val="79302656"/>
+        <c:axId val="79304960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85036416"/>
+        <c:axId val="79302656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -1195,18 +1196,17 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85059840"/>
+        <c:crossAx val="79304960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85059840"/>
+        <c:axId val="79304960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.1"/>
@@ -1243,12 +1243,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85036416"/>
+        <c:crossAx val="79302656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -1256,7 +1255,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1266,6 +1264,324 @@
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nb-NO"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Geometry a, 400 A</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'d3 400_24'!$AA$13:$AA$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'d3 400_24'!$AB$13:$AB$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.666666666666657</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.777777777777786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90.909090909090907</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Geometry b, 400 A</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'d3 400_24'!$AA$13:$AA$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'d3 400_24'!$AC$13:$AC$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="67927040"/>
+        <c:axId val="73706880"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="67927040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO" sz="1200"/>
+                  <a:t>Upstream over-pressure [bar]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73706880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="73706880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO" sz="1200"/>
+                  <a:t>Successful interruptions [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+        </c:spPr>
+        <c:crossAx val="67927040"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -1289,7 +1605,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1593,11 +1908,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="84696448"/>
-        <c:axId val="84715008"/>
+        <c:axId val="79339904"/>
+        <c:axId val="79341440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84696448"/>
+        <c:axId val="79339904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1606,14 +1921,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84715008"/>
+        <c:crossAx val="79341440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84715008"/>
+        <c:axId val="79341440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1627,21 +1942,20 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="84696448"/>
+        <c:crossAx val="79339904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2099,11 +2413,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="85258240"/>
-        <c:axId val="85260544"/>
+        <c:axId val="80818944"/>
+        <c:axId val="80820864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85258240"/>
+        <c:axId val="80818944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -2180,13 +2494,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85260544"/>
+        <c:crossAx val="80820864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85260544"/>
+        <c:axId val="80820864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.1"/>
@@ -2224,7 +2538,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85258240"/>
+        <c:crossAx val="80818944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -2465,11 +2779,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="85367424"/>
-        <c:axId val="85386368"/>
+        <c:axId val="81308288"/>
+        <c:axId val="81425536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85367424"/>
+        <c:axId val="81308288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2486,7 +2800,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="nb-NO"/>
+                  <a:rPr lang="nb-NO" sz="1200"/>
                   <a:t>Upstream over-pressure [bar]</a:t>
                 </a:r>
               </a:p>
@@ -2497,14 +2811,14 @@
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85386368"/>
+        <c:crossAx val="81425536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85386368"/>
+        <c:axId val="81425536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2522,7 +2836,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="nb-NO"/>
+                  <a:rPr lang="nb-NO" sz="1200"/>
                   <a:t>Successful interruptions [%]</a:t>
                 </a:r>
               </a:p>
@@ -2535,7 +2849,7 @@
         <c:spPr>
           <a:noFill/>
         </c:spPr>
-        <c:crossAx val="85367424"/>
+        <c:crossAx val="81308288"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -2557,7 +2871,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3093,11 +3407,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="85451136"/>
-        <c:axId val="85453440"/>
+        <c:axId val="81477632"/>
+        <c:axId val="81479936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85451136"/>
+        <c:axId val="81477632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -3166,13 +3480,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85453440"/>
+        <c:crossAx val="81479936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85453440"/>
+        <c:axId val="81479936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.1"/>
@@ -3210,7 +3524,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85451136"/>
+        <c:crossAx val="81477632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -3305,9 +3619,6 @@
                 <c:pt idx="7">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3392,25 +3703,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="85581824"/>
-        <c:axId val="85583360"/>
+        <c:axId val="81497472"/>
+        <c:axId val="81588224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85581824"/>
+        <c:axId val="81497472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85583360"/>
+        <c:crossAx val="81588224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85583360"/>
+        <c:axId val="81588224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3418,7 +3729,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85581824"/>
+        <c:crossAx val="81497472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3432,7 +3743,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3635,19 +3946,16 @@
                 <c:pt idx="7">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="85623936"/>
-        <c:axId val="85626240"/>
+        <c:axId val="81341824"/>
+        <c:axId val="81356672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85623936"/>
+        <c:axId val="81341824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3664,7 +3972,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="nb-NO"/>
+                  <a:rPr lang="nb-NO" sz="1200"/>
                   <a:t>Upstream over-pressure [bar]</a:t>
                 </a:r>
               </a:p>
@@ -3675,14 +3983,14 @@
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85626240"/>
+        <c:crossAx val="81356672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85626240"/>
+        <c:axId val="81356672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3700,7 +4008,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="nb-NO"/>
+                  <a:rPr lang="nb-NO" sz="1200"/>
                   <a:t>Successful interruptions [%]</a:t>
                 </a:r>
               </a:p>
@@ -3713,7 +4021,7 @@
         <c:spPr>
           <a:noFill/>
         </c:spPr>
-        <c:crossAx val="85623936"/>
+        <c:crossAx val="81341824"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -3735,7 +4043,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4283,11 +4591,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="85546496"/>
-        <c:axId val="85565440"/>
+        <c:axId val="81597184"/>
+        <c:axId val="81599488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85546496"/>
+        <c:axId val="81597184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -4356,13 +4664,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85565440"/>
+        <c:crossAx val="81599488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85565440"/>
+        <c:axId val="81599488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.1"/>
@@ -4404,7 +4712,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85546496"/>
+        <c:crossAx val="81597184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -4422,6 +4730,306 @@
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="nb-NO"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Geometry a, 630 A</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'d3 630_24'!$AF$21:$AF$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'d3 630_24'!$AH$21:$AH$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.333333333333343</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Geometry b, 630 A</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'d3 630_24'!$AF$21:$AF$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'d3 630_24'!$AG$21:$AG$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="2">
+                  <c:v>42.857142857142854</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="75714944"/>
+        <c:axId val="75717248"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="75714944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO" sz="1200"/>
+                  <a:t>Upstream over-pressure [bar]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75717248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="75717248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO" sz="1200"/>
+                  <a:t>Successful interruptions [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+        </c:spPr>
+        <c:crossAx val="75714944"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -5394,10 +6002,10 @@
       <xdr:rowOff>183046</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>215347</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>49696</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6327,16 +6935,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>459442</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>489857</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>537882</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>299357</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6947,6 +7555,71 @@
 </c:userShapes>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>559734</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>41461</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>347382</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>44822</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>462241</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>26334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>324970</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
@@ -11172,8 +11845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD27"/>
   <sheetViews>
-    <sheetView topLeftCell="C26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="H20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W53" sqref="W25:W53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -14201,8 +14874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AN42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView topLeftCell="I31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AG81" sqref="AG81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -15990,9 +16663,6 @@
       </c>
       <c r="AF29">
         <v>2</v>
-      </c>
-      <c r="AG29">
-        <v>0</v>
       </c>
       <c r="AH29">
         <v>0</v>
@@ -16376,4 +17046,19 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>